--- a/Procedures/Saskit/NouveauxProduit.xlsx
+++ b/Procedures/Saskit/NouveauxProduit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\MVC\Procedures\Saskit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Saskit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1332DFB7-AA59-44DE-A42B-A25864BCEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38321DF2-AE3E-4AEB-BE69-E3275E284C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="saskitps_product" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="2542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="2573">
   <si>
     <t>id_product</t>
   </si>
@@ -7472,9 +7472,6 @@
     <t>MRIGHT75-SF</t>
   </si>
   <si>
-    <t>Where pa.id_product in (724)</t>
-  </si>
-  <si>
     <t>electropompe-dw-vox-75-sans-flotteur-mdwvox100</t>
   </si>
   <si>
@@ -7631,9 +7628,6 @@
     <t>12.700000</t>
   </si>
   <si>
-    <t>Where p.id_product in (734,735) and pa.id_product is null</t>
-  </si>
-  <si>
     <t>ecoplanc-2m-palettede38caillebotis1000x1000</t>
   </si>
   <si>
@@ -7662,6 +7656,105 @@
   </si>
   <si>
     <t>590.000000</t>
+  </si>
+  <si>
+    <t>T-SHIRT AQUATIRIS TAILLE S</t>
+  </si>
+  <si>
+    <t>20.540000</t>
+  </si>
+  <si>
+    <t>TSHIRTF-S</t>
+  </si>
+  <si>
+    <t>TSHIRTJ-S</t>
+  </si>
+  <si>
+    <t>T-SHIRT AQUATIRIS TAILLE M</t>
+  </si>
+  <si>
+    <t>TSHIRTF-M</t>
+  </si>
+  <si>
+    <t>TSHIRTJ-M</t>
+  </si>
+  <si>
+    <t>T-SHIRT AQUATIRIS TAILLE L</t>
+  </si>
+  <si>
+    <t>TSHIRTF-L</t>
+  </si>
+  <si>
+    <t>TSHIRTJ-L</t>
+  </si>
+  <si>
+    <t>T-SHIRT AQUATIRIS TAILLE XL</t>
+  </si>
+  <si>
+    <t>TSHIRTF-XL</t>
+  </si>
+  <si>
+    <t>TSHIRTJ-XL</t>
+  </si>
+  <si>
+    <t>T-SHIRT AQUATIRIS TAILLE XXL</t>
+  </si>
+  <si>
+    <t>TSHIRTF-XXL</t>
+  </si>
+  <si>
+    <t>TSHIRTJ-XXL</t>
+  </si>
+  <si>
+    <t>T-SHIRT AQUATIRIS TAILLE XXXL</t>
+  </si>
+  <si>
+    <t>TSHIRTF-XXXL</t>
+  </si>
+  <si>
+    <t>TSHIRTJ-XXXL</t>
+  </si>
+  <si>
+    <t>Where pa.id_product in (709)</t>
+  </si>
+  <si>
+    <t>kit-drainage-aeration-pour-fv-geo-4-a-10-eh-sortie...</t>
+  </si>
+  <si>
+    <t>KIT DRAINAGE AERATION POUR FV+FH GEO 4 à 7 EH SORT...</t>
+  </si>
+  <si>
+    <t>116.560000</t>
+  </si>
+  <si>
+    <t>DFVCFH</t>
+  </si>
+  <si>
+    <t>DFVLFH</t>
+  </si>
+  <si>
+    <t>Where p.id_product in (730,731) and pa.id_product is null</t>
+  </si>
+  <si>
+    <t>kit-pap-dir02-vannes-guillotines-d110-sur-verrins-...</t>
+  </si>
+  <si>
+    <t>KIT PAP DIR02 VANNES GUILLOTINES D110 SUR VERRINS</t>
+  </si>
+  <si>
+    <t>975.000000</t>
+  </si>
+  <si>
+    <t>KITGUILLAUTO110</t>
+  </si>
+  <si>
+    <t>kit-pap-dir02-vannes-guillotines-d63-sur-verrins-k...</t>
+  </si>
+  <si>
+    <t>KIT PAP DIR02 VANNES GUILLOTINES D63 SUR VERRINS</t>
+  </si>
+  <si>
+    <t>KITGUILLAUTO63</t>
   </si>
 </sst>
 </file>
@@ -8493,10 +8586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX625"/>
+  <dimension ref="A1:AX643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D603" workbookViewId="0">
-      <selection activeCell="I626" sqref="I626"/>
+    <sheetView tabSelected="1" topLeftCell="D612" workbookViewId="0">
+      <selection activeCell="F643" sqref="F643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25224,16 +25317,16 @@
         <v>2891</v>
       </c>
       <c r="C609" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D609" s="2" t="s">
         <v>2479</v>
-      </c>
-      <c r="D609" s="2" t="s">
-        <v>2480</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>1974</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="H609" s="2" t="s">
         <v>2316</v>
@@ -25251,16 +25344,16 @@
         <v>2892</v>
       </c>
       <c r="C610" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D610" s="2" t="s">
         <v>2482</v>
       </c>
-      <c r="D610" s="2" t="s">
+      <c r="F610" s="2" t="s">
         <v>2483</v>
       </c>
-      <c r="F610" s="2" t="s">
+      <c r="G610" s="2" t="s">
         <v>2484</v>
-      </c>
-      <c r="G610" s="2" t="s">
-        <v>2485</v>
       </c>
       <c r="H610" s="2" t="s">
         <v>2316</v>
@@ -25278,16 +25371,16 @@
         <v>2893</v>
       </c>
       <c r="C611" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D611" s="2" t="s">
         <v>2486</v>
       </c>
-      <c r="D611" s="2" t="s">
+      <c r="F611" s="2" t="s">
         <v>2487</v>
       </c>
-      <c r="F611" s="2" t="s">
+      <c r="G611" s="2" t="s">
         <v>2488</v>
-      </c>
-      <c r="G611" s="2" t="s">
-        <v>2489</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>2316</v>
@@ -25332,19 +25425,19 @@
         <v>199</v>
       </c>
       <c r="C613" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D613" s="2" t="s">
         <v>2490</v>
       </c>
-      <c r="D613" s="2" t="s">
+      <c r="F613" s="2" t="s">
         <v>2491</v>
       </c>
-      <c r="F613" s="2" t="s">
+      <c r="G613" s="2" t="s">
         <v>2492</v>
       </c>
-      <c r="G613" s="2" t="s">
+      <c r="H613" s="2" t="s">
         <v>2493</v>
-      </c>
-      <c r="H613" s="2" t="s">
-        <v>2494</v>
       </c>
       <c r="I613" t="str">
         <f t="shared" si="31"/>
@@ -25359,16 +25452,16 @@
         <v>2894</v>
       </c>
       <c r="C615" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D615" s="2" t="s">
         <v>2495</v>
       </c>
-      <c r="D615" s="2" t="s">
+      <c r="F615" s="2" t="s">
         <v>2496</v>
       </c>
-      <c r="F615" s="2" t="s">
+      <c r="G615" s="2" t="s">
         <v>2497</v>
-      </c>
-      <c r="G615" s="2" t="s">
-        <v>2498</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>2045</v>
@@ -25386,19 +25479,19 @@
         <v>2895</v>
       </c>
       <c r="C616" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D616" s="2" t="s">
         <v>2499</v>
       </c>
-      <c r="D616" s="2" t="s">
+      <c r="F616" s="2" t="s">
         <v>2500</v>
       </c>
-      <c r="F616" s="2" t="s">
+      <c r="G616" s="2" t="s">
         <v>2501</v>
       </c>
-      <c r="G616" s="2" t="s">
+      <c r="H616" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="H616" s="2" t="s">
-        <v>2503</v>
       </c>
       <c r="I616" t="str">
         <f t="shared" si="31"/>
@@ -25413,16 +25506,16 @@
         <v>2896</v>
       </c>
       <c r="C617" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D617" s="2" t="s">
         <v>2504</v>
       </c>
-      <c r="D617" s="2" t="s">
+      <c r="F617" s="2" t="s">
         <v>2505</v>
       </c>
-      <c r="F617" s="2" t="s">
+      <c r="G617" s="2" t="s">
         <v>2506</v>
-      </c>
-      <c r="G617" s="2" t="s">
-        <v>2507</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>345</v>
@@ -25440,19 +25533,19 @@
         <v>2897</v>
       </c>
       <c r="C618" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D618" s="2" t="s">
         <v>2508</v>
       </c>
-      <c r="D618" s="2" t="s">
+      <c r="F618" s="2" t="s">
         <v>2509</v>
       </c>
-      <c r="F618" s="2" t="s">
+      <c r="G618" s="2" t="s">
         <v>2510</v>
       </c>
-      <c r="G618" s="2" t="s">
+      <c r="H618" s="2" t="s">
         <v>2511</v>
-      </c>
-      <c r="H618" s="2" t="s">
-        <v>2512</v>
       </c>
       <c r="I618" t="str">
         <f t="shared" si="31"/>
@@ -25467,19 +25560,19 @@
         <v>2898</v>
       </c>
       <c r="C619" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D619" s="2" t="s">
         <v>2513</v>
       </c>
-      <c r="D619" s="2" t="s">
+      <c r="F619" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G619" s="2" t="s">
         <v>2514</v>
       </c>
-      <c r="F619" s="2" t="s">
-        <v>2510</v>
-      </c>
-      <c r="G619" s="2" t="s">
+      <c r="H619" s="2" t="s">
         <v>2515</v>
-      </c>
-      <c r="H619" s="2" t="s">
-        <v>2516</v>
       </c>
       <c r="I619" t="str">
         <f t="shared" si="31"/>
@@ -25494,16 +25587,16 @@
         <v>2899</v>
       </c>
       <c r="C620" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D620" s="2" t="s">
         <v>2517</v>
       </c>
-      <c r="D620" s="2" t="s">
+      <c r="F620" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="F620" s="2" t="s">
+      <c r="G620" s="2" t="s">
         <v>2519</v>
-      </c>
-      <c r="G620" s="2" t="s">
-        <v>2520</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>1742</v>
@@ -25521,19 +25614,19 @@
         <v>2900</v>
       </c>
       <c r="C621" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D621" s="2" t="s">
         <v>2521</v>
       </c>
-      <c r="D621" s="2" t="s">
+      <c r="F621" s="2" t="s">
         <v>2522</v>
       </c>
-      <c r="F621" s="2" t="s">
+      <c r="G621" s="2" t="s">
         <v>2523</v>
       </c>
-      <c r="G621" s="2" t="s">
+      <c r="H621" s="2" t="s">
         <v>2524</v>
-      </c>
-      <c r="H621" s="2" t="s">
-        <v>2525</v>
       </c>
       <c r="I621" t="str">
         <f t="shared" si="31"/>
@@ -25548,22 +25641,22 @@
         <v>2901</v>
       </c>
       <c r="C622" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D622" s="2" t="s">
         <v>2526</v>
       </c>
-      <c r="D622" s="2" t="s">
+      <c r="F622" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="F622" s="2" t="s">
+      <c r="G622" s="2" t="s">
         <v>2528</v>
       </c>
-      <c r="G622" s="2" t="s">
+      <c r="H622" s="2" t="s">
         <v>2529</v>
       </c>
-      <c r="H622" s="2" t="s">
-        <v>2530</v>
-      </c>
       <c r="I622" t="str">
-        <f t="shared" ref="I622:I625" si="32">CONCATENATE($S$1,A622,",",B622,",'",G622,"','",D622,"',",F622,",1, NOW());")</f>
+        <f t="shared" ref="I622:I643" si="32">CONCATENATE($S$1,A622,",",B622,",'",G622,"','",D622,"',",F622,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2901,'MBAR406','BARRE T ACIER GALVANISE 4,06',98.600000,1, NOW());</v>
       </c>
     </row>
@@ -25575,19 +25668,19 @@
         <v>199</v>
       </c>
       <c r="C624" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F624" s="2" t="s">
         <v>2532</v>
       </c>
-      <c r="D624" s="2" t="s">
+      <c r="G624" s="2" t="s">
         <v>2533</v>
       </c>
-      <c r="F624" s="2" t="s">
+      <c r="H624" s="2" t="s">
         <v>2534</v>
-      </c>
-      <c r="G624" s="2" t="s">
-        <v>2535</v>
-      </c>
-      <c r="H624" s="2" t="s">
-        <v>2536</v>
       </c>
       <c r="I624" t="str">
         <f t="shared" si="32"/>
@@ -25602,23 +25695,455 @@
         <v>199</v>
       </c>
       <c r="C625" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F625" s="2" t="s">
         <v>2537</v>
       </c>
-      <c r="D625" s="2" t="s">
+      <c r="G625" s="2" t="s">
         <v>2538</v>
       </c>
-      <c r="F625" s="2" t="s">
+      <c r="H625" s="2" t="s">
         <v>2539</v>
-      </c>
-      <c r="G625" s="2" t="s">
-        <v>2540</v>
-      </c>
-      <c r="H625" s="2" t="s">
-        <v>2541</v>
       </c>
       <c r="I625" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',735,NULL,'PALGRILLE1000X1250','PALETTE DE 38 CAILLEBOTIS 1000x1250',1989.680000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A627" s="2">
+        <v>566</v>
+      </c>
+      <c r="B627" s="2">
+        <v>2929</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="H627" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I627" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2929,'TSHIRTF-S','T-SHIRT AQUATIRIS TAILLE S',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A628" s="2">
+        <v>566</v>
+      </c>
+      <c r="B628" s="2">
+        <v>2930</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H628" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I628" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2930,'TSHIRTJ-S','T-SHIRT AQUATIRIS TAILLE S',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A629" s="2">
+        <v>566</v>
+      </c>
+      <c r="B629" s="2">
+        <v>2933</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H629" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I629" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2933,'TSHIRTF-M','T-SHIRT AQUATIRIS TAILLE M',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>566</v>
+      </c>
+      <c r="B630" s="2">
+        <v>2934</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G630" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="H630" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I630" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2934,'TSHIRTJ-M','T-SHIRT AQUATIRIS TAILLE M',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>566</v>
+      </c>
+      <c r="B631" s="2">
+        <v>2937</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H631" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I631" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2937,'TSHIRTF-L','T-SHIRT AQUATIRIS TAILLE L',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>566</v>
+      </c>
+      <c r="B632" s="2">
+        <v>2938</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H632" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I632" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2938,'TSHIRTJ-L','T-SHIRT AQUATIRIS TAILLE L',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>566</v>
+      </c>
+      <c r="B633" s="2">
+        <v>2941</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H633" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I633" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2941,'TSHIRTF-XL','T-SHIRT AQUATIRIS TAILLE XL',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <v>566</v>
+      </c>
+      <c r="B634" s="2">
+        <v>2942</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I634" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2942,'TSHIRTJ-XL','T-SHIRT AQUATIRIS TAILLE XL',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <v>566</v>
+      </c>
+      <c r="B635" s="2">
+        <v>2945</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H635" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I635" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2945,'TSHIRTF-XXL','T-SHIRT AQUATIRIS TAILLE XXL',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>566</v>
+      </c>
+      <c r="B636" s="2">
+        <v>2946</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="H636" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I636" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2946,'TSHIRTJ-XXL','T-SHIRT AQUATIRIS TAILLE XXL',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>566</v>
+      </c>
+      <c r="B637" s="2">
+        <v>2949</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G637" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H637" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I637" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2949,'TSHIRTF-XXXL','T-SHIRT AQUATIRIS TAILLE XXXL',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>566</v>
+      </c>
+      <c r="B638" s="2">
+        <v>2950</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H638" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I638" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2950,'TSHIRTJ-XXXL','T-SHIRT AQUATIRIS TAILLE XXXL',20.540000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <v>709</v>
+      </c>
+      <c r="B640" s="2">
+        <v>2865</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G640" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="H640" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I640" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',709,2865,'DFVCFH','KIT DRAINAGE AERATION POUR FV+FH GEO 4 à 7 EH SORT...',116.560000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>709</v>
+      </c>
+      <c r="B641" s="2">
+        <v>2866</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G641" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H641" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I641" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',709,2866,'DFVLFH','KIT DRAINAGE AERATION POUR FV+FH GEO 4 à 7 EH SORT...',115.000000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>730</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="H642" s="2" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I642" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',730,NULL,'KITGUILLAUTO110','KIT PAP DIR02 VANNES GUILLOTINES D110 SUR VERRINS',975.000000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>731</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G643" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H643" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I643" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',731,NULL,'KITGUILLAUTO63','KIT PAP DIR02 VANNES GUILLOTINES D63 SUR VERRINS',0.000000,1, NOW());</v>
       </c>
     </row>
   </sheetData>
@@ -25632,7 +26157,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N15"/>
+      <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25674,7 +26199,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2478</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -25692,7 +26217,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25734,7 +26259,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2531</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/Procedures/Saskit/NouveauxProduit.xlsx
+++ b/Procedures/Saskit/NouveauxProduit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Saskit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38321DF2-AE3E-4AEB-BE69-E3275E284C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E6387A-54D5-4A0F-B150-91209960FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="saskitps_product" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="2573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="2581">
   <si>
     <t>id_product</t>
   </si>
@@ -7733,9 +7733,6 @@
     <t>DFVLFH</t>
   </si>
   <si>
-    <t>Where p.id_product in (730,731) and pa.id_product is null</t>
-  </si>
-  <si>
     <t>kit-pap-dir02-vannes-guillotines-d110-sur-verrins-...</t>
   </si>
   <si>
@@ -7755,6 +7752,33 @@
   </si>
   <si>
     <t>KITGUILLAUTO63</t>
+  </si>
+  <si>
+    <t>Where p.id_product in (740,741) and pa.id_product is null</t>
+  </si>
+  <si>
+    <t>ecoplanc-2m-palettede36grillesnonpieton1000x1000</t>
+  </si>
+  <si>
+    <t>PALETTE DE 36 GRILLES NON PIETON 1000x1000</t>
+  </si>
+  <si>
+    <t>1175.470000</t>
+  </si>
+  <si>
+    <t>PALGRILLE1000X1000NP</t>
+  </si>
+  <si>
+    <t>palette-de-38-caillebotis-1000x1250-palettede36gri...</t>
+  </si>
+  <si>
+    <t>PALETTE DE 36 GRILLES NON PIETON 1000x1250</t>
+  </si>
+  <si>
+    <t>1386.070000</t>
+  </si>
+  <si>
+    <t>PALGRILLE1000X1250NP</t>
   </si>
 </sst>
 </file>
@@ -8586,10 +8610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX643"/>
+  <dimension ref="A1:AX646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D612" workbookViewId="0">
-      <selection activeCell="F643" sqref="F643"/>
+    <sheetView tabSelected="1" topLeftCell="G621" workbookViewId="0">
+      <selection activeCell="I645" sqref="I645:I646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25656,7 +25680,7 @@
         <v>2529</v>
       </c>
       <c r="I622" t="str">
-        <f t="shared" ref="I622:I643" si="32">CONCATENATE($S$1,A622,",",B622,",'",G622,"','",D622,"',",F622,",1, NOW());")</f>
+        <f t="shared" ref="I622:I646" si="32">CONCATENATE($S$1,A622,",",B622,",'",G622,"','",D622,"',",F622,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2901,'MBAR406','BARRE T ACIER GALVANISE 4,06',98.600000,1, NOW());</v>
       </c>
     </row>
@@ -26100,16 +26124,16 @@
         <v>199</v>
       </c>
       <c r="C642" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D642" s="2" t="s">
         <v>2566</v>
       </c>
-      <c r="D642" s="2" t="s">
+      <c r="F642" s="2" t="s">
         <v>2567</v>
       </c>
-      <c r="F642" s="2" t="s">
+      <c r="G642" s="2" t="s">
         <v>2568</v>
-      </c>
-      <c r="G642" s="2" t="s">
-        <v>2569</v>
       </c>
       <c r="H642" s="2" t="s">
         <v>2316</v>
@@ -26127,16 +26151,16 @@
         <v>199</v>
       </c>
       <c r="C643" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D643" s="2" t="s">
         <v>2570</v>
-      </c>
-      <c r="D643" s="2" t="s">
-        <v>2571</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>265</v>
       </c>
       <c r="G643" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="H643" s="2" t="s">
         <v>265</v>
@@ -26144,6 +26168,60 @@
       <c r="I643" t="str">
         <f t="shared" si="32"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',731,NULL,'KITGUILLAUTO63','KIT PAP DIR02 VANNES GUILLOTINES D63 SUR VERRINS',0.000000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <v>740</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="H645" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="I645" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',740,NULL,'PALGRILLE1000X1000NP','PALETTE DE 36 GRILLES NON PIETON 1000x1000',1175.470000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <v>741</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I646" t="str">
+        <f t="shared" si="32"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',741,NULL,'PALGRILLE1000X1250NP','PALETTE DE 36 GRILLES NON PIETON 1000x1250',1386.070000,1, NOW());</v>
       </c>
     </row>
   </sheetData>
@@ -26217,7 +26295,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J14"/>
+      <selection sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26259,7 +26337,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2565</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/Procedures/Saskit/NouveauxProduit.xlsx
+++ b/Procedures/Saskit/NouveauxProduit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Aquatiris\Docs\Procedures\Saskit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E6387A-54D5-4A0F-B150-91209960FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B8DEA2-15A5-4C8A-A3A6-B0495DE1F9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Extraction_SansDecli Boutique" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="2594">
   <si>
     <t>id_product</t>
   </si>
@@ -7754,9 +7755,6 @@
     <t>KITGUILLAUTO63</t>
   </si>
   <si>
-    <t>Where p.id_product in (740,741) and pa.id_product is null</t>
-  </si>
-  <si>
     <t>ecoplanc-2m-palettede36grillesnonpieton1000x1000</t>
   </si>
   <si>
@@ -7779,6 +7777,48 @@
   </si>
   <si>
     <t>PALGRILLE1000X1250NP</t>
+  </si>
+  <si>
+    <t>culotte-pvc-evac-45-ff-d100-reduction10063</t>
+  </si>
+  <si>
+    <t>REDUCTION 100 63</t>
+  </si>
+  <si>
+    <t>4.440000</t>
+  </si>
+  <si>
+    <t>ENFTR10063</t>
+  </si>
+  <si>
+    <t>Where p.id_product in (736,738,739) and pa.id_product is null</t>
+  </si>
+  <si>
+    <t>contacteur-25a-legrand-2no-sans-manette-contacteur...</t>
+  </si>
+  <si>
+    <t>CONTACTEUR 25A LEGRAND 2NO SANS MANETTE</t>
+  </si>
+  <si>
+    <t>29.620000</t>
+  </si>
+  <si>
+    <t>CONTLEGMAN</t>
+  </si>
+  <si>
+    <t>TOURET CABLE ELECTRIQUE SOUPLE H07RNF 5G1.5</t>
+  </si>
+  <si>
+    <t>1.778100</t>
+  </si>
+  <si>
+    <t>H8505158</t>
+  </si>
+  <si>
+    <t>TOURET CABLE ELECTRIQUE SOUPLE H07RNF 7G1.5</t>
+  </si>
+  <si>
+    <t>H8507158</t>
   </si>
 </sst>
 </file>
@@ -8610,10 +8650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX646"/>
+  <dimension ref="A1:AX650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G621" workbookViewId="0">
-      <selection activeCell="I645" sqref="I645:I646"/>
+    <sheetView tabSelected="1" topLeftCell="F621" workbookViewId="0">
+      <selection activeCell="I647" sqref="I647:I650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11853,7 +11893,7 @@
         <v>464</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" ref="I113:I114" si="6">CONCATENATE($L$1,"'",E113,"',",A113,",",B113,",'",G113,"','",D113,"',",F113,",1, NOW());")</f>
+        <f>CONCATENATE($L$1,"'",E113,"',",A113,",",B113,",'",G113,"','",D113,"',",F113,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',533,NULL,'ECOLAT14','ECOLAT 14 x 25m',71.620000,1, NOW());</v>
       </c>
     </row>
@@ -11883,7 +11923,7 @@
         <v>469</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE($L$1,"'",E114,"',",A114,",",B114,",'",G114,"','",D114,"',",F114,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',534,NULL,'ECOLAT19','ECOLAT 19 x 25m',91.200000,1, NOW());</v>
       </c>
     </row>
@@ -11943,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" ref="I116:I125" si="7">CONCATENATE($L$1,"'",E116,"',",A116,",",B116,",'",G116,"','",D116,"',",F116,",1, NOW());")</f>
+        <f t="shared" ref="I116:I125" si="6">CONCATENATE($L$1,"'",E116,"',",A116,",",B116,",'",G116,"','",D116,"',",F116,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',537,NULL,'SPY45100','culotte Y 45°MF 100',31,1, NOW());</v>
       </c>
     </row>
@@ -11973,7 +12013,7 @@
         <v>265</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',538,NULL,'CROIX63','CROIX PVC PRESSION',7.840000,1, NOW());</v>
       </c>
     </row>
@@ -12012,7 +12052,7 @@
         <v>265</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',536,933,'PVC5016','50 TUBE PVC PRESSION',7.470000,1, NOW());</v>
       </c>
       <c r="J119" s="2"/>
@@ -12083,7 +12123,7 @@
         <v>265</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',536,934,'PVC6316','63 TUBE PVC PRESSION',9.870000,1, NOW());</v>
       </c>
       <c r="J120" s="2"/>
@@ -12154,7 +12194,7 @@
         <v>265</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',442,456,'M50','50 MANCHON EGAL',0.420000,1, NOW());</v>
       </c>
       <c r="J121" s="2"/>
@@ -12225,7 +12265,7 @@
         <v>265</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',442,457,'M63','63 MANCHON EGAL',0.740000,1, NOW());</v>
       </c>
       <c r="J122" s="2"/>
@@ -12296,7 +12336,7 @@
         <v>496</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PACK EPDM FV',540,NULL,'NCLAPETDR100','SORTIE A CLAPET DIAM 100',18.000000,1, NOW());</v>
       </c>
     </row>
@@ -12326,7 +12366,7 @@
         <v>502</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',541,NULL,'ECOP2','ECOPLANC 2m',20.910000,1, NOW());</v>
       </c>
     </row>
@@ -12356,7 +12396,7 @@
         <v>507</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',542,NULL,'ECOP2.5','ECOPLANC 2m50',26.090000,1, NOW());</v>
       </c>
     </row>
@@ -12425,7 +12465,7 @@
         <v>555</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" ref="I128:I150" si="8">CONCATENATE($O$1,"'",E128,"',",A128,",",B128,",'",G128,"','",D128,"',",F128,",1, NOW());")</f>
+        <f t="shared" ref="I128:I150" si="7">CONCATENATE($O$1,"'",E128,"',",A128,",",B128,",'",G128,"','",D128,"',",F128,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,897,'SPR900V75BG','poste de relevage eaux brutes 900 - MDWVOX75 - BG',938.000000,1, NOW());</v>
       </c>
     </row>
@@ -12455,7 +12495,7 @@
         <v>556</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,898,'SPR1200V75','poste de relevage eaux brutes 1200 - MDWVOX75',848.000000,1, NOW());</v>
       </c>
     </row>
@@ -12485,7 +12525,7 @@
         <v>556</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,899,'SPR1200V75BG','poste de relevage eaux brutes 1200 - MDWVOX75 - BG',958.000000,1, NOW());</v>
       </c>
     </row>
@@ -12515,7 +12555,7 @@
         <v>557</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,900,'SPR1500V75','poste de relevage eaux brutes 1500 - MDWVOX75',898.000000,1, NOW());</v>
       </c>
     </row>
@@ -12545,7 +12585,7 @@
         <v>557</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,901,'SPR1500V75BG','poste de relevage eaux brutes 1500 - MDWVOX75 - BG',998.000000,1, NOW());</v>
       </c>
     </row>
@@ -12575,7 +12615,7 @@
         <v>555</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,906,'SPR900V100','poste de relevage eaux brutes 900 - MDWVOX100',928.000000,1, NOW());</v>
       </c>
     </row>
@@ -12605,7 +12645,7 @@
         <v>555</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,907,'SPR900V100BG','poste de relevage eaux brutes 900 - MDWVOX100 - BG',1038.000000,1, NOW());</v>
       </c>
     </row>
@@ -12635,7 +12675,7 @@
         <v>556</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,908,'SPR1200V100','poste de relevage eaux brutes 1200 - MDWVOX100',948.000000,1, NOW());</v>
       </c>
     </row>
@@ -12665,7 +12705,7 @@
         <v>556</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,909,'SPR1200V100BG','poste de relevage eaux brutes 1200 - MDWVOX100 - BG',1058.000000,1, NOW());</v>
       </c>
     </row>
@@ -12695,7 +12735,7 @@
         <v>557</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,910,'SPR1500V100','poste de relevage eaux brutes 1500 - MDWVOX100',998.000000,1, NOW());</v>
       </c>
     </row>
@@ -12725,7 +12765,7 @@
         <v>557</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,911,'SPR1500V100BG','poste de relevage eaux brutes 1500 - MDWVOX100 - BG',1098.000000,1, NOW());</v>
       </c>
     </row>
@@ -12755,7 +12795,7 @@
         <v>555</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,916,'SPR900V150','poste de relevage eaux brutes 900 - MDWVOX150',938.000000,1, NOW());</v>
       </c>
     </row>
@@ -12785,7 +12825,7 @@
         <v>555</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,917,'SPR900V150BG','poste de relevage eaux brutes 900 - MDWVOX150 - BG',1048.000000,1, NOW());</v>
       </c>
     </row>
@@ -12815,7 +12855,7 @@
         <v>556</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,918,'SPR1200V150','poste de relevage eaux brutes 1200 - MDWVOX150',958.000000,1, NOW());</v>
       </c>
     </row>
@@ -12845,7 +12885,7 @@
         <v>556</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,919,'SPR1200V150BG','poste de relevage eaux brutes 1200 - MDWVOX150 - BG',1068.000000,1, NOW());</v>
       </c>
     </row>
@@ -12875,7 +12915,7 @@
         <v>557</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,920,'SPR1500V150','poste de relevage eaux brutes 1500 - MDWVOX150',1008.000000,1, NOW());</v>
       </c>
     </row>
@@ -12905,7 +12945,7 @@
         <v>557</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,921,'SPR1500V150BG','poste de relevage eaux brutes 1500 - MDWVOX150 - BG',1108.000000,1, NOW());</v>
       </c>
     </row>
@@ -12935,7 +12975,7 @@
         <v>555</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,937,'SPR1900V75BG','poste de relevage eaux brutes 1900 - MDWVOX75 - BG',1198.000000,1, NOW());</v>
       </c>
     </row>
@@ -12965,7 +13005,7 @@
         <v>555</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,939,'SPR1900V100BG','poste de relevage eaux brutes 1900 - MDWVOX100 - BG',1298.000000,1, NOW());</v>
       </c>
     </row>
@@ -12995,7 +13035,7 @@
         <v>555</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',532,941,'SPR1900V150BG','poste de relevage eaux brutes 1900 - MDWVOX150 - BG',1308.000000,1, NOW());</v>
       </c>
     </row>
@@ -13055,7 +13095,7 @@
         <v>265</v>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Accessoires postes',548,NULL,'MCOFPRO','coffret alarme et protection relevage',149.000000,1, NOW());</v>
       </c>
     </row>
@@ -13085,7 +13125,7 @@
         <v>265</v>
       </c>
       <c r="I151" t="str">
-        <f t="shared" ref="I151:I153" si="9">CONCATENATE($L$1,"'",E151,"',",A151,",",B151,",'",G151,"','",D151,"',",F151,",1, NOW());")</f>
+        <f>CONCATENATE($L$1,"'",E151,"',",A151,",",B151,",'",G151,"','",D151,"',",F151,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',549,NULL,'C70701800','CHEVRON 70X70 L 1.80M',10.370000,1, NOW());</v>
       </c>
     </row>
@@ -13115,7 +13155,7 @@
         <v>265</v>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE($L$1,"'",E152,"',",A152,",",B152,",'",G152,"','",D152,"',",F152,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',550,NULL,'C41413000','CHEVRON 41X41 L 3M',12.920000,1, NOW());</v>
       </c>
     </row>
@@ -13145,7 +13185,7 @@
         <v>265</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE($L$1,"'",E153,"',",A153,",",B153,",'",G153,"','",D153,"',",F153,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Bordures',551,NULL,'C501151800','BASTAINGS 50X115 L 1.80M',12.150000,1, NOW());</v>
       </c>
     </row>
@@ -13355,7 +13395,7 @@
         <v>626</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" ref="I163:I177" si="10">CONCATENATE($N$1,"'",E163,"',",A163,",",B163,",'",G163,"','",D163,"',",F163,",1, NOW());")</f>
+        <f t="shared" ref="I163:I177" si="8">CONCATENATE($N$1,"'",E163,"',",A163,",",B163,",'",G163,"','",D163,"',",F163,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2336,'PCG4EH','GRAVITAIRE 4EH COFFRAGE PVC GRAVITAIRE',988.000000,1, NOW());</v>
       </c>
     </row>
@@ -13385,7 +13425,7 @@
         <v>626</v>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2337,'PCG5EH','GRAVITAIRE 5EH COFFRAGE PVC GRAVITAIRE',1064.000000,1, NOW());</v>
       </c>
     </row>
@@ -13415,7 +13455,7 @@
         <v>626</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2338,'PCG6EHA','GRAVITAIRE 6EH 4X3 COFFRAGE PVC GRAVITAIRE',1182.000000,1, NOW());</v>
       </c>
     </row>
@@ -13445,7 +13485,7 @@
         <v>626</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2339,'PCG6EHB','GRAVITAIRE 6EH 6X2 COFFRAGE PVC GRAVITAIRE',1297.000000,1, NOW());</v>
       </c>
     </row>
@@ -13475,7 +13515,7 @@
         <v>626</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2340,'PCG7EH','GRAVITAIRE 7EH COFFRAGE PVC GRAVITAIRE',1328.000000,1, NOW());</v>
       </c>
     </row>
@@ -13505,7 +13545,7 @@
         <v>626</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2341,'PCG8EH','GRAVITAIRE 8EH 4X4 COFFRAGE PVC GRAVITAIRE',1412.000000,1, NOW());</v>
       </c>
     </row>
@@ -13535,7 +13575,7 @@
         <v>626</v>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2342,'PCG9EH','GRAVITAIRE 9EH COFFRAGE PVC GRAVITAIRE',1475.000000,1, NOW());</v>
       </c>
     </row>
@@ -13565,7 +13605,7 @@
         <v>626</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2343,'PCG10EH','GRAVITAIRE 10EH COFFRAGE PVC GRAVITAIRE',1622.000000,1, NOW());</v>
       </c>
     </row>
@@ -13595,7 +13635,7 @@
         <v>626</v>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2344,'PCG12EHA','GRAVITAIRE 12EH 6X4 COFFRAGE PVC GRAVITAIRE',1814.000000,1, NOW());</v>
       </c>
     </row>
@@ -13625,7 +13665,7 @@
         <v>626</v>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2345,'PCG12EHB','GRAVITAIRE 12EH 8X3 COFFRAGE PVC GRAVITAIRE',1933.000000,1, NOW());</v>
       </c>
     </row>
@@ -13655,7 +13695,7 @@
         <v>626</v>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2346,'PCG14EHA','GRAVITAIRE 14EH 8X3.5 COFFRAGE PVC GRAVITAIRE',2066.000000,1, NOW());</v>
       </c>
     </row>
@@ -13685,7 +13725,7 @@
         <v>626</v>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2347,'PCG14EHB','GRAVITAIRE 14EH 7X4 COFFRAGE PVC GRAVITAIRE',1947.000000,1, NOW());</v>
       </c>
     </row>
@@ -13715,7 +13755,7 @@
         <v>626</v>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2348,'PCG16EH','GRAVITAIRE 16EH COFFRAGE PVC GRAVITAIRE',2342.000000,1, NOW());</v>
       </c>
     </row>
@@ -13745,7 +13785,7 @@
         <v>626</v>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2349,'PCG18EHA','GRAVITAIRE 18EH 8X4.5 COFFRAGE PVC GRAVITAIRE',2430.000000,1, NOW());</v>
       </c>
     </row>
@@ -13775,7 +13815,7 @@
         <v>626</v>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',558,2350,'PCG20EHB','GRAVITAIRE 20EH 8X5 COFFRAGE PVC GRAVITAIRE',2543.000000,1, NOW());</v>
       </c>
     </row>
@@ -13835,7 +13875,7 @@
         <v>507</v>
       </c>
       <c r="I179" t="str">
-        <f t="shared" ref="I179:I193" si="11">CONCATENATE($I$1,"'",E179,"',",A179,",",B179,",'",G179,"','",D179,"',",F179,",1, NOW());")</f>
+        <f t="shared" ref="I179:I193" si="9">CONCATENATE($I$1,"'",E179,"',",A179,",",B179,",'",G179,"','",D179,"',",F179,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1551,'PCLC4EH','CLOISON 4EH KIT CLOISON CENTRALE FV',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -13865,7 +13905,7 @@
         <v>507</v>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1552,'PCLC5EH','CLOISON 5EH KIT CLOISON CENTRALE FV',40.000000,1, NOW());</v>
       </c>
     </row>
@@ -13895,7 +13935,7 @@
         <v>507</v>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1553,'PCLC6EHA','CLOISON 6EHA 4X3 KIT CLOISON CENTRALE FV',51.000000,1, NOW());</v>
       </c>
     </row>
@@ -13925,7 +13965,7 @@
         <v>507</v>
       </c>
       <c r="I182" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1554,'PCLC6EHB','CLOISON 6EHB 6X2 KIT CLOISON CENTRALE FV',40.000000,1, NOW());</v>
       </c>
     </row>
@@ -13955,7 +13995,7 @@
         <v>507</v>
       </c>
       <c r="I183" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1555,'PCLC7EH','CLOISON 7EH KIT CLOISON CENTRALE FV',61.000000,1, NOW());</v>
       </c>
     </row>
@@ -13985,7 +14025,7 @@
         <v>507</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1556,'PCLC8EH','CLOISON 8EH KIT CLOISON CENTRALE FV',70.000000,1, NOW());</v>
       </c>
     </row>
@@ -14015,7 +14055,7 @@
         <v>507</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1557,'PCLC9EH','CLOISON 9EH KIT CLOISON CENTRALE FV',71.000000,1, NOW());</v>
       </c>
     </row>
@@ -14045,7 +14085,7 @@
         <v>507</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1558,'PCLC10EH','CLOISON 10EH KIT CLOISON CENTRALE FV',86.000000,1, NOW());</v>
       </c>
     </row>
@@ -14075,7 +14115,7 @@
         <v>507</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1559,'PCLC12EHA','CLOISON 12EHA 6X4 KIT CLOISON CENTRALE FV',100.000000,1, NOW());</v>
       </c>
     </row>
@@ -14105,7 +14145,7 @@
         <v>507</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1560,'PCLC12EHB','CLOISON 12EHB 8X3 KIT CLOISON CENTRALE FV',51.000000,1, NOW());</v>
       </c>
     </row>
@@ -14135,7 +14175,7 @@
         <v>507</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1561,'PCLC14EHA','CLOISON 14EHA 8X3.5 KIT CLOISON CENTRALE FV',94.000000,1, NOW());</v>
       </c>
     </row>
@@ -14165,7 +14205,7 @@
         <v>507</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1562,'PCLC14EHB','CLOISON 14EHB 7X4 KIT CLOISON CENTRALE FV',100.000000,1, NOW());</v>
       </c>
     </row>
@@ -14195,7 +14235,7 @@
         <v>507</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1563,'PCLC16EH','CLOISON 16EH KIT CLOISON CENTRALE FV',100.000000,1, NOW());</v>
       </c>
     </row>
@@ -14225,7 +14265,7 @@
         <v>507</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1564,'PCLC18EHA','CLOISON 18EHA 8X4.5 KIT CLOISON CENTRALE FV',105.000000,1, NOW());</v>
       </c>
     </row>
@@ -14255,7 +14295,7 @@
         <v>507</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','PACK  FV GEO 1.52mm',562,1565,'PCLC20EHB','CLOISON 20EHB 8X5 KIT CLOISON CENTRALE FV',115.000000,1, NOW());</v>
       </c>
     </row>
@@ -14285,7 +14325,7 @@
         <v>626</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" ref="I194:I209" si="12">CONCATENATE($N$1,"'",E194,"',",A194,",",B194,",'",G194,"','",D194,"',",F194,",1, NOW());")</f>
+        <f t="shared" ref="I194:I209" si="10">CONCATENATE($N$1,"'",E194,"',",A194,",",B194,",'",G194,"','",D194,"',",F194,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2351,'PCR3EH','RELEVAGE 3EH COFFRAGE PVC RELEVAGE',785.000000,1, NOW());</v>
       </c>
     </row>
@@ -14315,7 +14355,7 @@
         <v>626</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2352,'PCR4EH','RELEVAGE 4EH COFFRAGE PVC RELEVAGE',896.000000,1, NOW());</v>
       </c>
     </row>
@@ -14345,7 +14385,7 @@
         <v>626</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2353,'PCR5EH','RELEVAGE 5EH COFFRAGE PVC RELEVAGE',959.000000,1, NOW());</v>
       </c>
     </row>
@@ -14375,7 +14415,7 @@
         <v>626</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2354,'PCR6EHA','RELEVAGE 6EH 4X3 COFFRAGE PVC RELEVAGE',1107.000000,1, NOW());</v>
       </c>
     </row>
@@ -14405,7 +14445,7 @@
         <v>626</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2355,'PCR6EHB','RELEVAGE 6EH 6X2 COFFRAGE PVC RELEVAGE',1202.000000,1, NOW());</v>
       </c>
     </row>
@@ -14435,7 +14475,7 @@
         <v>626</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2356,'PCR7EH','RELEVAGE 7EH COFFRAGE PVC RELEVAGE',1240.000000,1, NOW());</v>
       </c>
     </row>
@@ -14465,7 +14505,7 @@
         <v>626</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2357,'PCR8EH','RELEVAGE 8EH 4X4  COFFRAGE PVC RELEVAGE',1312.000000,1, NOW());</v>
       </c>
     </row>
@@ -14495,7 +14535,7 @@
         <v>626</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2358,'PCR9EH','RELEVAGE 9EH COFFRAGE PVC RELEVAGE',1375.000000,1, NOW());</v>
       </c>
     </row>
@@ -14525,7 +14565,7 @@
         <v>626</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2359,'PCR10EH','RELEVAGE 10EH COFFRAGE PVC RELEVAGE',1508.000000,1, NOW());</v>
       </c>
     </row>
@@ -14555,7 +14595,7 @@
         <v>626</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2360,'PCR12EHA','RELEVAGE 12EH 6X4 COFFRAGE PVC RELEVAGE',1716.000000,1, NOW());</v>
       </c>
     </row>
@@ -14585,7 +14625,7 @@
         <v>626</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2361,'PCR12EHB','RELEVAGE 12EH 8X3 COFFRAGE PVC RELEVAGE',1860.000000,1, NOW());</v>
       </c>
     </row>
@@ -14615,7 +14655,7 @@
         <v>626</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2362,'PCR14EHA','RELEVAGE 14EH 8X3.5 COFFRAGE PVC RELEVAGE',1976.000000,1, NOW());</v>
       </c>
     </row>
@@ -14645,7 +14685,7 @@
         <v>626</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2363,'PCR14EHB','RELEVAGE 14EH 7X4 COFFRAGE PVC RELEVAGE',1840.000000,1, NOW());</v>
       </c>
     </row>
@@ -14675,7 +14715,7 @@
         <v>626</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2364,'PCR16EH','RELEVAGE 16EH COFFRAGE PVC RELEVAGE',2251.000000,1, NOW());</v>
       </c>
     </row>
@@ -14705,7 +14745,7 @@
         <v>626</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2365,'PCR18EHA','RELEVAGE 18EH 8X4.5 COFFRAGE PVC RELEVAGE',2328.000000,1, NOW());</v>
       </c>
     </row>
@@ -14735,7 +14775,7 @@
         <v>626</v>
       </c>
       <c r="I209" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',563,2366,'PCR20EHB','RELEVAGE 20EH 8X5 COFFRAGE PVC RELEVAGE',2425.000000,1, NOW());</v>
       </c>
     </row>
@@ -14825,7 +14865,7 @@
         <v>626</v>
       </c>
       <c r="I214" t="str">
-        <f t="shared" ref="I214:I219" si="13">CONCATENATE($N$1,"'",E214,"',",A214,",",B214,",'",G214,"','",D214,"',",F214,",1, NOW());")</f>
+        <f t="shared" ref="I214:I219" si="11">CONCATENATE($N$1,"'",E214,"',",A214,",",B214,",'",G214,"','",D214,"',",F214,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',154,2368,'BFV3EH','KIT BAC 3EH KIT BAC PEHD',953.980000,1, NOW());</v>
       </c>
     </row>
@@ -14855,7 +14895,7 @@
         <v>626</v>
       </c>
       <c r="I215" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',154,2369,'BFV5EH','KIT BAC 5EH KIT BAC PEHD',1625.780000,1, NOW());</v>
       </c>
     </row>
@@ -14885,7 +14925,7 @@
         <v>626</v>
       </c>
       <c r="I216" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',154,2370,'BFV6EH','KIT BAC 6EH KIT BAC PEHD',1907.960000,1, NOW());</v>
       </c>
     </row>
@@ -14915,7 +14955,7 @@
         <v>832</v>
       </c>
       <c r="I217" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',154,2371,'BFV10EH','KIT BAC 10EH KIT BAC PEHD',3251.560000,1, NOW());</v>
       </c>
     </row>
@@ -14945,7 +14985,7 @@
         <v>832</v>
       </c>
       <c r="I218" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',154,2372,'BFV12EH','KIT BAC 12EH KIT BAC PEHD',3815.920000,1, NOW());</v>
       </c>
     </row>
@@ -14975,7 +15015,7 @@
         <v>832</v>
       </c>
       <c r="I219" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',154,2373,'BFV20EH','KIT BAC 20EH  KIT BAC PEHD',6503.120000,1, NOW());</v>
       </c>
     </row>
@@ -15258,7 +15298,7 @@
         <v>880</v>
       </c>
       <c r="I233" t="str">
-        <f t="shared" ref="I233:I278" si="14">CONCATENATE($P$1,"'",E233,"',",A233,",",B233,",'",G233,"','",D233,"',",F233,",1, NOW());")</f>
+        <f t="shared" ref="I233:I278" si="12">CONCATENATE($P$1,"'",E233,"',",A233,",",B233,",'",G233,"','",D233,"',",F233,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',471,537,'FICHEFV','FICHE A5 FV FICHE A5',9.500000,1, NOW());</v>
       </c>
     </row>
@@ -15288,7 +15328,7 @@
         <v>884</v>
       </c>
       <c r="I234" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',472,540,'Book+GuideMO','BOOK REALISATION ET GUIDE DE MO BOOK DES REALISATIONS / GUIDE TECHNIQUE DE MISE EN OEUVRE',50.750000,1, NOW());</v>
       </c>
     </row>
@@ -15318,7 +15358,7 @@
         <v>889</v>
       </c>
       <c r="I235" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',472,541,'BOOK','BOOK DES REALISATIONS BOOK DES REALISATIONS / GUIDE TECHNIQUE DE MISE EN OEUVRE',30.750000,1, NOW());</v>
       </c>
     </row>
@@ -15348,7 +15388,7 @@
         <v>889</v>
       </c>
       <c r="I236" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',472,542,'GUIDEMO','GUIDE DE MO BOOK DES REALISATIONS / GUIDE TECHNIQUE DE MISE EN OEUVRE',30.750000,1, NOW());</v>
       </c>
     </row>
@@ -15378,7 +15418,7 @@
         <v>895</v>
       </c>
       <c r="I237" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',473,705,'GUIDEFVFHB','GUIDE FV FH BAC GUIDES DE L\'USAGE (FV + FH ET FV)',38.610000,1, NOW());</v>
       </c>
     </row>
@@ -15408,7 +15448,7 @@
         <v>898</v>
       </c>
       <c r="I238" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',473,942,'GUIDEFVG','GUIDE FV GEOMEMBRANE GUIDES DE L\'USAGE (FV + FH ET FV)',38.610000,1, NOW());</v>
       </c>
     </row>
@@ -15438,7 +15478,7 @@
         <v>902</v>
       </c>
       <c r="I239" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',474,710,'CARNETFVFH','CARNETFVFH CARNETS D\'ENTRETIEN',11.720000,1, NOW());</v>
       </c>
     </row>
@@ -15468,7 +15508,7 @@
         <v>906</v>
       </c>
       <c r="I240" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',474,936,'CARNETFV','CARNETFV CARNETS D\'ENTRETIEN',13.240000,1, NOW());</v>
       </c>
     </row>
@@ -15498,7 +15538,7 @@
         <v>911</v>
       </c>
       <c r="I241" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',486,926,'BADGES EAUX PLUVIALES','Classique BADGES',7.990000,1, NOW());</v>
       </c>
     </row>
@@ -15528,7 +15568,7 @@
         <v>911</v>
       </c>
       <c r="I242" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',486,927,'BADGES2019','Collection 2019 BADGES',7.990000,1, NOW());</v>
       </c>
     </row>
@@ -15558,7 +15598,7 @@
         <v>911</v>
       </c>
       <c r="I243" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',486,935,'BADGE','EAUX PLUVIALES BADGES',7.990000,1, NOW());</v>
       </c>
     </row>
@@ -15588,7 +15628,7 @@
         <v>922</v>
       </c>
       <c r="I244" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',490,558,'CHEMISEPRO','CHEMISE CHEMISE A RABAT',16.260000,1, NOW());</v>
       </c>
     </row>
@@ -15618,7 +15658,7 @@
         <v>927</v>
       </c>
       <c r="I245" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',490,559,'FICHEMARRON','PARTICULIER CHEMISE A RABAT',1.920000,1, NOW());</v>
       </c>
     </row>
@@ -15648,7 +15688,7 @@
         <v>927</v>
       </c>
       <c r="I246" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',490,560,'FICHEBLEU','TOURISME CHEMISE A RABAT',1.920000,1, NOW());</v>
       </c>
     </row>
@@ -15678,7 +15718,7 @@
         <v>927</v>
       </c>
       <c r="I247" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',490,561,'FICHEROSE','GOUPE CHEMISE A RABAT',1.920000,1, NOW());</v>
       </c>
     </row>
@@ -15708,7 +15748,7 @@
         <v>927</v>
       </c>
       <c r="I248" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',490,562,'FICHEVERT','AGRICOLE CHEMISE A RABAT',1.920000,1, NOW());</v>
       </c>
     </row>
@@ -15738,7 +15778,7 @@
         <v>941</v>
       </c>
       <c r="I249" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',491,549,'404S','TAILLE S BODY WARMER FEMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15768,7 +15808,7 @@
         <v>941</v>
       </c>
       <c r="I250" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',491,550,'404M','TAILLE M BODY WARMER FEMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15798,7 +15838,7 @@
         <v>941</v>
       </c>
       <c r="I251" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',491,551,'404L','TAILLE L BODY WARMER FEMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15828,7 +15868,7 @@
         <v>941</v>
       </c>
       <c r="I252" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',491,552,'404XL','TAILLE XL BODY WARMER FEMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15858,7 +15898,7 @@
         <v>941</v>
       </c>
       <c r="I253" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',492,553,'403S','TAILLE S BODY WARMER HOMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15888,7 +15928,7 @@
         <v>941</v>
       </c>
       <c r="I254" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',492,554,'403M','TAILLE M BODY WARMER HOMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15948,7 +15988,7 @@
         <v>941</v>
       </c>
       <c r="I256" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',492,556,'403XL','TAILLE XL BODY WARMER HOMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -15978,7 +16018,7 @@
         <v>941</v>
       </c>
       <c r="I257" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',492,557,'403XXL','TAILLE XXL BODY WARMER HOMME',40.600000,1, NOW());</v>
       </c>
     </row>
@@ -16054,7 +16094,7 @@
         <v>969</v>
       </c>
       <c r="I260" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2377,'TSHIRTG-S','TAILLE S T-SHIRT GRIS AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16084,7 +16124,7 @@
         <v>969</v>
       </c>
       <c r="I261" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2378,'TSHIRTM-S','TAILLE S T-SHIRT MARINE AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16114,7 +16154,7 @@
         <v>969</v>
       </c>
       <c r="I262" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2379,'TSHIRTG-M','TAILLE M T-SHIRT GRIS AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16144,7 +16184,7 @@
         <v>969</v>
       </c>
       <c r="I263" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2380,'TSHIRTM-M','TAILLE M T-SHIRT MARINE AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16174,7 +16214,7 @@
         <v>969</v>
       </c>
       <c r="I264" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2381,'TSHIRTG-L','TAILLE L T-SHIRT GRIS AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16204,7 +16244,7 @@
         <v>969</v>
       </c>
       <c r="I265" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2382,'TSHIRTM-L','TAILLE L T-SHIRT MARINE AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16234,7 +16274,7 @@
         <v>969</v>
       </c>
       <c r="I266" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2383,'TSHIRTG-XL','TAILLE XL T-SHIRT GRIS AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16264,7 +16304,7 @@
         <v>969</v>
       </c>
       <c r="I267" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2384,'TSHIRTM-XL','TAILLE XL T-SHIRT MARINE AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16294,7 +16334,7 @@
         <v>969</v>
       </c>
       <c r="I268" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2385,'TSHIRTG-XXL','TAILLE XXL T-SHIRT GRIS AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16324,7 +16364,7 @@
         <v>969</v>
       </c>
       <c r="I269" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2386,'TSHIRTM-XXL','TAILLE XXL T-SHIRT MARINE AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16354,7 +16394,7 @@
         <v>969</v>
       </c>
       <c r="I270" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2387,'TSHIRTG-XXXL','TAILLE XXXL T-SHIRT GRIS AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16384,7 +16424,7 @@
         <v>969</v>
       </c>
       <c r="I271" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',566,2388,'TSHIRTM-XXXL','TAILLE XXXL T-SHIRT MARINE AQUATIRIS',14.000000,1, NOW());</v>
       </c>
     </row>
@@ -16414,7 +16454,7 @@
         <v>978</v>
       </c>
       <c r="I272" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2389,'PULLH-M','TAILLE M PULL AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16444,7 +16484,7 @@
         <v>978</v>
       </c>
       <c r="I273" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2390,'PULLH-L','TAILLE L PULL HOMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16474,7 +16514,7 @@
         <v>978</v>
       </c>
       <c r="I274" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2391,'PULLH-XL','TAILLE XL PULL HOMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16504,7 +16544,7 @@
         <v>978</v>
       </c>
       <c r="I275" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2392,'PULLH-XXL','TAILLE XXL PULL HOMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16534,7 +16574,7 @@
         <v>978</v>
       </c>
       <c r="I276" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2393,'PULLH-XXXL','TAILLE XXXL PULL HOMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16564,7 +16604,7 @@
         <v>978</v>
       </c>
       <c r="I277" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2394,'PULLH-XXXXL','TAILLE XXXXL PULL HOMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16594,7 +16634,7 @@
         <v>978</v>
       </c>
       <c r="I278" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2395,'PULLH-XXXXXL','TAILLE XXXXXL PULL HOMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16624,7 +16664,7 @@
         <v>985</v>
       </c>
       <c r="I279" t="str">
-        <f t="shared" ref="I279:I320" si="15">CONCATENATE($P$1,"'",E279,"',",A279,",",B279,",'",G279,"','",D279,"',",F279,",1, NOW());")</f>
+        <f t="shared" ref="I279:I320" si="13">CONCATENATE($P$1,"'",E279,"',",A279,",",B279,",'",G279,"','",D279,"',",F279,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2396,'PULLF-M','TAILLE M PULL FEMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16654,7 +16694,7 @@
         <v>985</v>
       </c>
       <c r="I280" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2397,'PULLF-L','TAILLE L PULL FEMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16684,7 +16724,7 @@
         <v>985</v>
       </c>
       <c r="I281" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',567,2398,'PULLF-XL','TAILLE XL PULL FEMME AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -16714,7 +16754,7 @@
         <v>987</v>
       </c>
       <c r="I282" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2403,'MARINIEREH-S','TAILLE S MARINIERE HOMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16744,7 +16784,7 @@
         <v>987</v>
       </c>
       <c r="I283" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2404,'MARINIEREH-M','TAILLE M MARINIERE HOMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16774,7 +16814,7 @@
         <v>987</v>
       </c>
       <c r="I284" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2405,'MARINIEREH-L','TAILLE L MARINIERE HOMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16804,7 +16844,7 @@
         <v>987</v>
       </c>
       <c r="I285" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2406,'MARINIEREH-XL','TAILLE XL MARINIERE HOMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16834,7 +16874,7 @@
         <v>987</v>
       </c>
       <c r="I286" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2407,'MARINIEREH-XXL','TAILLE XXL MARINIERE HOMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16864,7 +16904,7 @@
         <v>987</v>
       </c>
       <c r="I287" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2408,'MARINIEREF-S','TAILLE S MARINIERE FEMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16894,7 +16934,7 @@
         <v>987</v>
       </c>
       <c r="I288" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2409,'MARINIEREF-M','TAILLE M MARINIERE FEMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16924,7 +16964,7 @@
         <v>987</v>
       </c>
       <c r="I289" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2410,'MARINIEREF-L','TAILLE L MARINIERE FEMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16954,7 +16994,7 @@
         <v>987</v>
       </c>
       <c r="I290" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',568,2411,'MARINIEREF-XL','TAILLE XL MARINIERE FEMME AQUATIRIS',35.000000,1, NOW());</v>
       </c>
     </row>
@@ -16984,7 +17024,7 @@
         <v>994</v>
       </c>
       <c r="I291" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2413,'VESTE-S','TAILLE S VESTE AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -17014,7 +17054,7 @@
         <v>994</v>
       </c>
       <c r="I292" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2414,'VESTE-M','TAILLE M VESTE AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -17044,7 +17084,7 @@
         <v>994</v>
       </c>
       <c r="I293" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2415,'VESTE-L','TAILLE L VESTE AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -17074,7 +17114,7 @@
         <v>994</v>
       </c>
       <c r="I294" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2416,'VESTE-XL','TAILLE XL VESTE AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -17104,7 +17144,7 @@
         <v>994</v>
       </c>
       <c r="I295" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2417,'VESTE-XXL','TAILLE XXL VESTE AQUATIRIS',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -17134,7 +17174,7 @@
         <v>1014</v>
       </c>
       <c r="I297" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',470,NULL,'PLAQUETTES','PLAQUETTES JARDIN D\'ASSAINISSEMENT',8.540000,1, NOW());</v>
       </c>
     </row>
@@ -17164,7 +17204,7 @@
         <v>1019</v>
       </c>
       <c r="I298" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',475,NULL,'KITSTAND','KIT STAND EXPO',119.440000,1, NOW());</v>
       </c>
     </row>
@@ -17194,7 +17234,7 @@
         <v>265</v>
       </c>
       <c r="I299" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',477,NULL,'PANNEAU','PANNEAU PEDAGOGIQUE',148.200000,1, NOW());</v>
       </c>
     </row>
@@ -17224,7 +17264,7 @@
         <v>1028</v>
       </c>
       <c r="I300" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',479,NULL,'KITGRANT','TEST GRANT',86.275000,1, NOW());</v>
       </c>
     </row>
@@ -17254,7 +17294,7 @@
         <v>1032</v>
       </c>
       <c r="I301" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',481,NULL,'PERMEAMETRE','PERMEAMETRE',389.650000,1, NOW());</v>
       </c>
     </row>
@@ -17284,7 +17324,7 @@
         <v>1037</v>
       </c>
       <c r="I302" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',483,NULL,'COLORIAGE','CARNETS DE COLORIAGES',24.360000,1, NOW());</v>
       </c>
     </row>
@@ -17314,7 +17354,7 @@
         <v>1042</v>
       </c>
       <c r="I303" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',484,NULL,'PLUMIERS','PLUMIERS EN BOIS',44.152000,1, NOW());</v>
       </c>
     </row>
@@ -17344,7 +17384,7 @@
         <v>889</v>
       </c>
       <c r="I304" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',485,NULL,'SACS','SACS EN KRAFT SIGLE AQUATIRIS',25.375000,1, NOW());</v>
       </c>
     </row>
@@ -17374,7 +17414,7 @@
         <v>1051</v>
       </c>
       <c r="I305" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',487,NULL,'CLE','CLE USB 8GO',9.439500,1, NOW());</v>
       </c>
     </row>
@@ -17404,7 +17444,7 @@
         <v>1056</v>
       </c>
       <c r="I306" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',488,NULL,'BANNIERE','BANNIERE RECTO/VERSO',38.960000,1, NOW());</v>
       </c>
     </row>
@@ -17434,7 +17474,7 @@
         <v>1061</v>
       </c>
       <c r="I307" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',489,NULL,'ROLLUP','ROLL UP AQUATIRIS',55.190000,1, NOW());</v>
       </c>
     </row>
@@ -17464,7 +17504,7 @@
         <v>1066</v>
       </c>
       <c r="I308" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',493,NULL,'Irstea-bleu','ETUDE IRSTEA 8 PAGES',14.260000,1, NOW());</v>
       </c>
     </row>
@@ -17494,7 +17534,7 @@
         <v>1071</v>
       </c>
       <c r="I309" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',494,NULL,'IRSTEA-vert','ETUDE IRSTEA 4 PAGES',3.880000,1, NOW());</v>
       </c>
     </row>
@@ -17524,7 +17564,7 @@
         <v>1076</v>
       </c>
       <c r="I310" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',495,NULL,'GuidePro','GUIDE POUR LES PRESCRIPTEURS',33.089000,1, NOW());</v>
       </c>
     </row>
@@ -17554,7 +17594,7 @@
         <v>1081</v>
       </c>
       <c r="I311" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',496,NULL,'PL-client','PLAQUETTE CLIENTELE',4.740000,1, NOW());</v>
       </c>
     </row>
@@ -17584,7 +17624,7 @@
         <v>265</v>
       </c>
       <c r="I312" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',505,NULL,'CARTEVISITE','CARTES DE VISITE',69.050000,1, NOW());</v>
       </c>
     </row>
@@ -17614,7 +17654,7 @@
         <v>1090</v>
       </c>
       <c r="I313" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',543,NULL,'PLJPL','PLAQUETTE JARDIN DE PLUIE',10.150000,1, NOW());</v>
       </c>
     </row>
@@ -17644,7 +17684,7 @@
         <v>1094</v>
       </c>
       <c r="I314" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',544,NULL,'PLFLOT','PLAQUETTE PHYTOFLOTTANTE',10.150000,1, NOW());</v>
       </c>
     </row>
@@ -17674,7 +17714,7 @@
         <v>969</v>
       </c>
       <c r="I315" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',545,NULL,'PLTINY','PLAQUETTE PHYTOTINY',10.150000,1, NOW());</v>
       </c>
     </row>
@@ -17704,7 +17744,7 @@
         <v>1102</v>
       </c>
       <c r="I316" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',553,NULL,'MAQUETTE','MAQUETTE AQUATIRIS',63.030000,1, NOW());</v>
       </c>
     </row>
@@ -17734,7 +17774,7 @@
         <v>1107</v>
       </c>
       <c r="I317" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',565,NULL,'Crayon','CRAYON AQUATIRIS',5.850000,1, NOW());</v>
       </c>
     </row>
@@ -17764,7 +17804,7 @@
         <v>1112</v>
       </c>
       <c r="I318" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',570,NULL,'PLTECH','PLAQUETTES TECHNICO COMMERCIAL',9.310000,1, NOW());</v>
       </c>
     </row>
@@ -17794,7 +17834,7 @@
         <v>265</v>
       </c>
       <c r="I319" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',575,NULL,'SACOCHE','SACOCHE ORDINATEUR',15.510000,1, NOW());</v>
       </c>
     </row>
@@ -17824,7 +17864,7 @@
         <v>420</v>
       </c>
       <c r="I320" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',576,NULL,'7FAMILLES','Jeu des 7 familles',4.880000,1, NOW());</v>
       </c>
     </row>
@@ -17884,7 +17924,7 @@
         <v>1620</v>
       </c>
       <c r="I323" t="str">
-        <f t="shared" ref="I323:I342" si="16">CONCATENATE($I$1,"'",E323,"',",A323,",",B323,",'",G323,"','",D323,"',",F323,",1, NOW());")</f>
+        <f t="shared" ref="I323:I342" si="14">CONCATENATE($I$1,"'",E323,"',",A323,",",B323,",'",G323,"','",D323,"',",F323,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',560,1516,'DGEOM_1220_152','Membrane EPDM 1.52mm sur mesure (en cm) 12.20m',1.320000,1, NOW());</v>
       </c>
     </row>
@@ -17914,7 +17954,7 @@
         <v>1624</v>
       </c>
       <c r="I324" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',560,1517,'DGEOM_1525_152','Membrane EPDM 1.52mm sur mesure (en cm) 15.25m',1.650000,1, NOW());</v>
       </c>
     </row>
@@ -17944,7 +17984,7 @@
         <v>1628</v>
       </c>
       <c r="I325" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',560,2553,'DGEOM_610_152','Membrane EPDM 1.52mm sur mesure (en cm) 6.10m',0.660000,1, NOW());</v>
       </c>
     </row>
@@ -17974,7 +18014,7 @@
         <v>1616</v>
       </c>
       <c r="I326" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',577,2538,'DGEOM_915_110','Membrane EPDM 1.10mm sur mesure (en cm) 9.15m',0.840000,1, NOW());</v>
       </c>
     </row>
@@ -18004,7 +18044,7 @@
         <v>1620</v>
       </c>
       <c r="I327" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',577,2539,'DGEOM_1220_110','Membrane EPDM 1.10mm sur mesure (en cm) 12.20m',1.120000,1, NOW());</v>
       </c>
     </row>
@@ -18034,7 +18074,7 @@
         <v>1624</v>
       </c>
       <c r="I328" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',577,2540,'DGEOM_1525_110','Membrane EPDM 1.10mm sur mesure (en cm) 15.25m',1.400000,1, NOW());</v>
       </c>
     </row>
@@ -18064,7 +18104,7 @@
         <v>1628</v>
       </c>
       <c r="I329" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','Membranes sur mesure',577,2554,'DGEOM_610_110','Membrane EPDM 1.10mm sur mesure (en cm) 6.10m',0.560000,1, NOW());</v>
       </c>
     </row>
@@ -18094,7 +18134,7 @@
         <v>1450</v>
       </c>
       <c r="I331" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2561,'DGEOM915_110_3050','Rouleau membrane 1.10mm l 09.15m L 30.5m',2263.860000,1, NOW());</v>
       </c>
     </row>
@@ -18124,7 +18164,7 @@
         <v>1450</v>
       </c>
       <c r="I332" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2562,'DGEOM_915_152_3050','Rouleau membrane 1.52mm l 09.15m L 30.5m',2797.170000,1, NOW());</v>
       </c>
     </row>
@@ -18154,7 +18194,7 @@
         <v>1450</v>
       </c>
       <c r="I333" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2563,'DGEOM_1220_110_3050','Rouleau membrane 1.10mm l 12.20m L 30.5m',3018.480000,1, NOW());</v>
       </c>
     </row>
@@ -18184,7 +18224,7 @@
         <v>1450</v>
       </c>
       <c r="I334" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2564,'DGEOM_1220_152_3050','Rouleau membrane 1.52mm l 12.20m L 30.5m',3729.560000,1, NOW());</v>
       </c>
     </row>
@@ -18214,7 +18254,7 @@
         <v>1450</v>
       </c>
       <c r="I335" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2565,'DGEOM_1525_110_3050','Rouleau membrane 1.10mm l 15.25m L 30.5m',3773.090000,1, NOW());</v>
       </c>
     </row>
@@ -18244,7 +18284,7 @@
         <v>1450</v>
       </c>
       <c r="I336" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2566,'DGEOM_1525_152_3050','Rouleau membrane 1.52mm l 15.25m L 30.5m',4661.950000,1, NOW());</v>
       </c>
     </row>
@@ -18274,7 +18314,7 @@
         <v>1450</v>
       </c>
       <c r="I337" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2567,'DGEOM_915_110_6100','Rouleau membrane 1.10mm l 09.15m L 61m',4527.710000,1, NOW());</v>
       </c>
     </row>
@@ -18304,7 +18344,7 @@
         <v>1450</v>
       </c>
       <c r="I338" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2568,'DGEOM_915_152_6100','Rouleau membrane 1.52mm l 09.15m L 61m',5594.340000,1, NOW());</v>
       </c>
     </row>
@@ -18334,7 +18374,7 @@
         <v>1450</v>
       </c>
       <c r="I339" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2569,'DGEOM_1220_110_6100','Rouleau membrane 1.10mm l 12.20m L 61m',6036.950000,1, NOW());</v>
       </c>
     </row>
@@ -18364,7 +18404,7 @@
         <v>1450</v>
       </c>
       <c r="I340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2570,'DGEOM_1220_152_6100','Rouleau membrane 1.52mm l 12.20m L 61m',7459.120000,1, NOW());</v>
       </c>
     </row>
@@ -18394,7 +18434,7 @@
         <v>1450</v>
       </c>
       <c r="I341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2571,'DGEOM_1525_110_6100','Rouleau membrane 1.10mm l 15.25m L 61m',7546.190000,1, NOW());</v>
       </c>
     </row>
@@ -18424,11 +18464,11 @@
         <v>1450</v>
       </c>
       <c r="I342" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2572,'DGEOM_1525_152_6100','Rouleau membrane 1.52mm l 15.25m L 61m',9323.900000,1, NOW());</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>579</v>
       </c>
@@ -18664,7 +18704,7 @@
         <v>884</v>
       </c>
       <c r="I352" t="str">
-        <f t="shared" ref="I352:I364" si="17">CONCATENATE($L$1,"'",E352,"',",A352,",",B352,",'",G352,"','",D352,"',",F352,",1, NOW());")</f>
+        <f t="shared" ref="I352:I364" si="15">CONCATENATE($L$1,"'",E352,"',",A352,",",B352,",'",G352,"','",D352,"',",F352,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Quincaillerie',591,NULL,'VCHARP8X140','VIS CHARPENTE 8X140 INOX A2 T40',0.549000,1, NOW());</v>
       </c>
     </row>
@@ -18694,7 +18734,7 @@
         <v>884</v>
       </c>
       <c r="I353" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Quincaillerie',592,NULL,'VCHARP8X300','VIS CHARPENTE 8X300 INOX A2 T40',3.030000,1, NOW());</v>
       </c>
     </row>
@@ -18724,7 +18764,7 @@
         <v>884</v>
       </c>
       <c r="I354" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Quincaillerie',593,NULL,'8210707018','VIS PENTURE 7X70 INOX A2 T30',0.158000,1, NOW());</v>
       </c>
     </row>
@@ -18754,7 +18794,7 @@
         <v>884</v>
       </c>
       <c r="I355" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Quincaillerie',594,NULL,'8210603018','VIS PENTURE 6X30 INOX A2 T30',0.068000,1, NOW());</v>
       </c>
     </row>
@@ -18784,7 +18824,7 @@
         <v>1744</v>
       </c>
       <c r="I357" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Ancrage EPDM',582,2573,'T403L15','BARRE T ALUMINIUM 40 MM 1,5 m',11.100000,1, NOW());</v>
       </c>
     </row>
@@ -18814,7 +18854,7 @@
         <v>1748</v>
       </c>
       <c r="I358" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Ancrage EPDM',582,2574,'T403L20','BARRE T ALUMINIUM 40 MM 2,0 m',14.800000,1, NOW());</v>
       </c>
     </row>
@@ -18844,7 +18884,7 @@
         <v>1744</v>
       </c>
       <c r="I359" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Ancrage EPDM',583,2575,'CE403L15','CORNIERE ALUMINIUM 1,5 m',10.550000,1, NOW());</v>
       </c>
     </row>
@@ -18874,7 +18914,7 @@
         <v>1748</v>
       </c>
       <c r="I360" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','Ancrage EPDM',583,2576,'CE403L20','CORNIERE ALUMINIUM 2,0 m',14.060000,1, NOW());</v>
       </c>
     </row>
@@ -18904,7 +18944,7 @@
         <v>331</v>
       </c>
       <c r="I361" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',584,2577,'NOVOFLEX63/25','COURONNE PVC SOUPLE D63 NOVOFLEX 25',197.940000,1, NOW());</v>
       </c>
     </row>
@@ -18934,7 +18974,7 @@
         <v>203</v>
       </c>
       <c r="I362" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',584,2578,'NOVOFLEX63/50','COURONNE PVC SOUPLE D63 NOVOFLEX 50',395.880000,1, NOW());</v>
       </c>
     </row>
@@ -18964,7 +19004,7 @@
         <v>1769</v>
       </c>
       <c r="I363" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',585,2579,'DFVL','KIT DRAINAGE AERATION POUR FV GEO 4 à 10 EH SORTIE LATERALE',80.000000,1, NOW());</v>
       </c>
     </row>
@@ -18994,7 +19034,7 @@
         <v>1769</v>
       </c>
       <c r="I364" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',585,2580,'DFVC','KIT DRAINAGE AERATION POUR FV GEO 4 à 10 EH SORTIE CENTRALE',80.000000,1, NOW());</v>
       </c>
     </row>
@@ -19054,7 +19094,7 @@
         <v>1777</v>
       </c>
       <c r="I366" t="str">
-        <f t="shared" ref="I366:I371" si="18">CONCATENATE($Q$1,"'",E366,"',",A366,",",B366,",'",G366,"','",D366,"',",F366,",1, NOW());")</f>
+        <f t="shared" ref="I366:I371" si="16">CONCATENATE($Q$1,"'",E366,"',",A366,",",B366,",'",G366,"','",D366,"',",F366,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Outillage','Scies cloches',588,2582,'MSCIE108','GAMME DE SCIES CLOCHES MHS D108 pour joints Forsheda D100',49.100000,1, NOW());</v>
       </c>
     </row>
@@ -19084,7 +19124,7 @@
         <v>1777</v>
       </c>
       <c r="I367" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Outillage','Scies cloches',588,2583,'MSCIE20','GAMME DE SCIES CLOCHES FIK D20 pour presse étoupe PG13',25.260000,1, NOW());</v>
       </c>
     </row>
@@ -19114,7 +19154,7 @@
         <v>1777</v>
       </c>
       <c r="I368" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Outillage','Scies cloches',588,2584,'MSCIEFIK105','GAMME DE SCIES CLOCHES FIK D105 pour message  D100 (PLAQUES PVC)',32.640000,1, NOW());</v>
       </c>
     </row>
@@ -19144,7 +19184,7 @@
         <v>1777</v>
       </c>
       <c r="I369" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Outillage','Scies cloches',588,2585,'MSCIEFIK127','GAMME DE SCIES CLOCHES FIK D127 pour traversée de paroi (plaques PVC)',72.380000,1, NOW());</v>
       </c>
     </row>
@@ -19174,7 +19214,7 @@
         <v>1777</v>
       </c>
       <c r="I370" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Outillage','Scies cloches',588,2586,'MSCIE57','GAMME DE SCIES CLOCHES MHST CARBURE D57 pour joints Forsheda D50',25.760000,1, NOW());</v>
       </c>
     </row>
@@ -19204,7 +19244,7 @@
         <v>1777</v>
       </c>
       <c r="I371" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Outillage','Scies cloches',588,2587,'MSCIE67','GAMME DE SCIES CLOCHES MHST CARBURE D67 pour joints Forsheda D63',49.100000,1, NOW());</v>
       </c>
     </row>
@@ -20005,7 +20045,7 @@
         <v>941</v>
       </c>
       <c r="I403" t="str">
-        <f t="shared" ref="I403:I418" si="19">CONCATENATE($P$1,"'",E403,"',",A403,",",B403,",'",G403,"','",D403,"',",F403,",1, NOW());")</f>
+        <f t="shared" ref="I403:I418" si="17">CONCATENATE($P$1,"'",E403,"',",A403,",",B403,",'",G403,"','",D403,"',",F403,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',624,2623,'BODYWARMER-M','BODY WARMER UNISEXE TAILLE M',46.150000,1, NOW());</v>
       </c>
     </row>
@@ -20035,7 +20075,7 @@
         <v>941</v>
       </c>
       <c r="I404" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',624,2624,'BODYWARMER-L','BODY WARMER UNISEXE TAILLE L',46.150000,1, NOW());</v>
       </c>
     </row>
@@ -20065,7 +20105,7 @@
         <v>941</v>
       </c>
       <c r="I405" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',624,2625,'BODYWARMER-XXL','BODY WARMER UNISEXE TAILLE XXL',46.150000,1, NOW());</v>
       </c>
     </row>
@@ -20095,7 +20135,7 @@
         <v>941</v>
       </c>
       <c r="I406" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',624,2627,'BODYWARMER-S','BODY WARMER UNISEXE TAILLE S',46.150000,1, NOW());</v>
       </c>
     </row>
@@ -20125,7 +20165,7 @@
         <v>941</v>
       </c>
       <c r="I407" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',624,2628,'BODYWARMER-XL','BODY WARMER UNISEXE TAILLE XL',46.150000,1, NOW());</v>
       </c>
     </row>
@@ -20155,7 +20195,7 @@
         <v>941</v>
       </c>
       <c r="I408" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',624,2629,'BODYWARMER-XXXL','BODY WARMER UNISEXE TAILLE XXXL',46.150000,1, NOW());</v>
       </c>
     </row>
@@ -20185,7 +20225,7 @@
         <v>1923</v>
       </c>
       <c r="I409" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2630,'POLOF-S','POLO FEMME S',30.500000,1, NOW());</v>
       </c>
     </row>
@@ -20215,7 +20255,7 @@
         <v>1923</v>
       </c>
       <c r="I410" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2631,'POLOF-M','POLO FEMME M',30.500000,1, NOW());</v>
       </c>
     </row>
@@ -20245,7 +20285,7 @@
         <v>1923</v>
       </c>
       <c r="I411" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2632,'POLOF-L','POLO FEMME L',30.500000,1, NOW());</v>
       </c>
     </row>
@@ -20275,7 +20315,7 @@
         <v>1923</v>
       </c>
       <c r="I412" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2633,'POLOF-XL','POLO FEMME XL',30.500000,1, NOW());</v>
       </c>
     </row>
@@ -20305,7 +20345,7 @@
         <v>353</v>
       </c>
       <c r="I413" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2634,'POLOH-M','POLO HOMME M',36.000000,1, NOW());</v>
       </c>
     </row>
@@ -20335,7 +20375,7 @@
         <v>353</v>
       </c>
       <c r="I414" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2635,'POLOH-L','POLO HOMME L',36.000000,1, NOW());</v>
       </c>
     </row>
@@ -20365,7 +20405,7 @@
         <v>353</v>
       </c>
       <c r="I415" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2636,'POLOH-XL','POLO HOMME XL',36.000000,1, NOW());</v>
       </c>
     </row>
@@ -20395,7 +20435,7 @@
         <v>353</v>
       </c>
       <c r="I416" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2637,'POLOH-XXL','POLO HOMME XXL',36.000000,1, NOW());</v>
       </c>
     </row>
@@ -20425,7 +20465,7 @@
         <v>1941</v>
       </c>
       <c r="I417" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2642,'POLOH-XXXL','POLO HOMME XXXL',36.000000,1, NOW());</v>
       </c>
     </row>
@@ -20455,7 +20495,7 @@
         <v>1941</v>
       </c>
       <c r="I418" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',627,2643,'POLOH-XXXXL','POLO HOMME XXXXL',36.000000,1, NOW());</v>
       </c>
     </row>
@@ -20605,7 +20645,7 @@
         <v>144</v>
       </c>
       <c r="I424" t="str">
-        <f t="shared" ref="I424:I425" si="20">CONCATENATE($N$1,"'",E424,"',",A424,",",B424,",'",G424,"','",D424,"',",F424,",1, NOW());")</f>
+        <f>CONCATENATE($N$1,"'",E424,"',",A424,",",B424,",'",G424,"','",D424,"',",F424,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',629,2649,'COFRPVCCAREX6EH','COFFRAGE PVC CAREX 6 EH',450.000000,1, NOW());</v>
       </c>
     </row>
@@ -20635,7 +20675,7 @@
         <v>1980</v>
       </c>
       <c r="I425" t="str">
-        <f t="shared" si="20"/>
+        <f>CONCATENATE($N$1,"'",E425,"',",A425,",",B425,",'",G425,"','",D425,"',",F425,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Accessoires bacs',629,2650,'COFRPVCCAREX5EH','COFFRAGE PVC CAREX 5 EH',380.000000,1, NOW());</v>
       </c>
     </row>
@@ -20815,7 +20855,7 @@
         <v>1967</v>
       </c>
       <c r="I432" t="str">
-        <f t="shared" ref="I432" si="21">CONCATENATE($P$1,"'",E432,"',",A432,",",B432,",'",G432,"','",D432,"',",F432,",1, NOW());")</f>
+        <f>CONCATENATE($P$1,"'",E432,"',",A432,",",B432,",'",G432,"','",D432,"',",F432,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',636,NULL,'KITSTAND','KIT STAND',1711.000000,1, NOW());</v>
       </c>
     </row>
@@ -20875,7 +20915,7 @@
         <v>507</v>
       </c>
       <c r="I435" t="str">
-        <f t="shared" ref="I435:I436" si="22">CONCATENATE($L$1,"'",E435,"',",A435,",",B435,",'",G435,"','",D435,"',",F435,",1, NOW());")</f>
+        <f>CONCATENATE($L$1,"'",E435,"',",A435,",",B435,",'",G435,"','",D435,"',",F435,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',640,2655,'DFVCR','KIT DRAINAGE AERATION POUR FV GEO 4 à 10 EH SORTIE CENTRALE',77.330000,1, NOW());</v>
       </c>
     </row>
@@ -20905,7 +20945,7 @@
         <v>507</v>
       </c>
       <c r="I436" t="str">
-        <f t="shared" si="22"/>
+        <f>CONCATENATE($L$1,"'",E436,"',",A436,",",B436,",'",G436,"','",D436,"',",F436,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Accessoires au détail','PVC Evacuation - Ventilation',640,2656,'DFVLR','KIT DRAINAGE AERATION POUR FV GEO 4 à 10 EH SORTIE LATERALE',75.000000,1, NOW());</v>
       </c>
     </row>
@@ -20995,7 +21035,7 @@
         <v>1450</v>
       </c>
       <c r="I441" t="str">
-        <f t="shared" ref="I441:I444" si="23">CONCATENATE($I$1,"'",E441,"',",A441,",",B441,",'",G441,"','",D441,"',",F441,",1, NOW());")</f>
+        <f>CONCATENATE($I$1,"'",E441,"',",A441,",",B441,",'",G441,"','",D441,"',",F441,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2657,'DGEOM_610_110_3050','Rouleau membrane 1.10mm l 6.10m L 30m50',2339.020000,1, NOW());</v>
       </c>
     </row>
@@ -21025,7 +21065,7 @@
         <v>1450</v>
       </c>
       <c r="I442" t="str">
-        <f t="shared" si="23"/>
+        <f>CONCATENATE($I$1,"'",E442,"',",A442,",",B442,",'",G442,"','",D442,"',",F442,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2658,'DGEOM_610_110_6100','Rouleau membrane 1.10mm l 6.10m L 61m',4678.040000,1, NOW());</v>
       </c>
     </row>
@@ -21055,7 +21095,7 @@
         <v>1450</v>
       </c>
       <c r="I443" t="str">
-        <f t="shared" si="23"/>
+        <f>CONCATENATE($I$1,"'",E443,"',",A443,",",B443,",'",G443,"','",D443,"',",F443,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2659,'DGEOM_610_152_3050','Rouleau membrane 1.52mm l 6.10m L 30m50',2891.210000,1, NOW());</v>
       </c>
     </row>
@@ -21085,7 +21125,7 @@
         <v>1450</v>
       </c>
       <c r="I444" t="str">
-        <f t="shared" si="23"/>
+        <f>CONCATENATE($I$1,"'",E444,"',",A444,",",B444,",'",G444,"','",D444,"',",F444,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Membranes','EPDM en rouleau brut',578,2660,'DGEOM_610_152_6100','Rouleau membrane 1.52mm l 6.10m L 61m',5782.430000,1, NOW());</v>
       </c>
     </row>
@@ -21330,7 +21370,7 @@
         <v>895</v>
       </c>
       <c r="I455" t="str">
-        <f t="shared" ref="I455:I460" si="24">CONCATENATE($P$1,"'",E455,"',",A455,",",B455,",'",G455,"','",D455,"',",F455,",1, NOW());")</f>
+        <f t="shared" ref="I455:I460" si="18">CONCATENATE($P$1,"'",E455,"',",A455,",",B455,",'",G455,"','",D455,"',",F455,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',473,2454,'GUIDEFVFHG','GUIDES DE L'USAGE (FV + FH ET FV) GUIDE FV FH GEOM...',56.500000,1, NOW());</v>
       </c>
     </row>
@@ -21360,7 +21400,7 @@
         <v>895</v>
       </c>
       <c r="I456" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',473,2455,'GUIDEFVB','GUIDES DE L'USAGE (FV + FH ET FV) GUIDE FV BAC',38.130000,1, NOW());</v>
       </c>
     </row>
@@ -21390,7 +21430,7 @@
         <v>420</v>
       </c>
       <c r="I457" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',649,NULL,'SABLIER','sablier',2.510000,1, NOW());</v>
       </c>
     </row>
@@ -21420,7 +21460,7 @@
         <v>420</v>
       </c>
       <c r="I458" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',650,NULL,'PINSIRIS','Un pin’s Iris',2.170000,1, NOW());</v>
       </c>
     </row>
@@ -21450,7 +21490,7 @@
         <v>420</v>
       </c>
       <c r="I459" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',652,NULL,'PINSA','pin’s A',2.170000,1, NOW());</v>
       </c>
     </row>
@@ -21480,7 +21520,7 @@
         <v>420</v>
       </c>
       <c r="I460" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',653,NULL,'PLOSIER','PLAQUETTE OSIER',6.350000,1, NOW());</v>
       </c>
     </row>
@@ -21570,7 +21610,7 @@
         <v>994</v>
       </c>
       <c r="I465" t="str">
-        <f t="shared" ref="I465:I466" si="25">CONCATENATE($P$1,"'",E465,"',",A465,",",B465,",'",G465,"','",D465,"',",F465,",1, NOW());")</f>
+        <f>CONCATENATE($P$1,"'",E465,"',",A465,",",B465,",'",G465,"','",D465,"',",F465,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2645,'VESTE-XXXL','VESTE AQUATIRIS TAILLE XXXL',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -21600,7 +21640,7 @@
         <v>994</v>
       </c>
       <c r="I466" t="str">
-        <f t="shared" si="25"/>
+        <f>CONCATENATE($P$1,"'",E466,"',",A466,",",B466,",'",G466,"','",D466,"',",F466,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',569,2646,'VESTE-XXXXL','VESTE AQUATIRIS TAILLE XXXXL',60.000000,1, NOW());</v>
       </c>
     </row>
@@ -21780,7 +21820,7 @@
         <v>721</v>
       </c>
       <c r="I475" t="str">
-        <f t="shared" ref="I475:I529" si="26">CONCATENATE($O$1,"'",E475,"',",A475,",",B475,",'",G475,"','",D475,"',",F475,",1, NOW());")</f>
+        <f t="shared" ref="I475:I529" si="19">CONCATENATE($O$1,"'",E475,"',",A475,",",B475,",'",G475,"','",D475,"',",F475,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2725,'DSPR1200V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',1850.000000,1, NOW());</v>
       </c>
     </row>
@@ -21810,7 +21850,7 @@
         <v>721</v>
       </c>
       <c r="I476" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2726,'DSPR1500V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2000.000000,1, NOW());</v>
       </c>
     </row>
@@ -21840,7 +21880,7 @@
         <v>721</v>
       </c>
       <c r="I477" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2727,'DSPR1900V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX75',2100.000000,1, NOW());</v>
       </c>
     </row>
@@ -21870,7 +21910,7 @@
         <v>721</v>
       </c>
       <c r="I478" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2728,'DSPR2200V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2200.000000,1, NOW());</v>
       </c>
     </row>
@@ -21900,7 +21940,7 @@
         <v>721</v>
       </c>
       <c r="I479" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2729,'DP-SPR1200V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2000.000000,1, NOW());</v>
       </c>
     </row>
@@ -21930,7 +21970,7 @@
         <v>721</v>
       </c>
       <c r="I480" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2730,'DP-SPR1500V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2150.000000,1, NOW());</v>
       </c>
     </row>
@@ -21960,7 +22000,7 @@
         <v>721</v>
       </c>
       <c r="I481" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2731,'DP-SPR1900V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX75',2250.000000,1, NOW());</v>
       </c>
     </row>
@@ -21990,7 +22030,7 @@
         <v>721</v>
       </c>
       <c r="I482" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2732,'DP-SPR2200V75','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2350.000000,1, NOW());</v>
       </c>
     </row>
@@ -22020,7 +22060,7 @@
         <v>721</v>
       </c>
       <c r="I483" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2733,'DSPR1200V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',1850.000000,1, NOW());</v>
       </c>
     </row>
@@ -22050,7 +22090,7 @@
         <v>721</v>
       </c>
       <c r="I484" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2734,'DSPR1500V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2000.000000,1, NOW());</v>
       </c>
     </row>
@@ -22080,7 +22120,7 @@
         <v>721</v>
       </c>
       <c r="I485" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2735,'DSPR1900V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX75',2100.000000,1, NOW());</v>
       </c>
     </row>
@@ -22110,7 +22150,7 @@
         <v>721</v>
       </c>
       <c r="I486" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2736,'DSPR2200V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2200.000000,1, NOW());</v>
       </c>
     </row>
@@ -22140,7 +22180,7 @@
         <v>721</v>
       </c>
       <c r="I487" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2737,'DP-SPR1200V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2000.000000,1, NOW());</v>
       </c>
     </row>
@@ -22170,7 +22210,7 @@
         <v>721</v>
       </c>
       <c r="I488" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2738,'DP-SPR1500V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2150.000000,1, NOW());</v>
       </c>
     </row>
@@ -22200,7 +22240,7 @@
         <v>721</v>
       </c>
       <c r="I489" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2739,'DP-SPR1900V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX75',2250.000000,1, NOW());</v>
       </c>
     </row>
@@ -22230,7 +22270,7 @@
         <v>721</v>
       </c>
       <c r="I490" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2740,'DP-SPR2200V75ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2350.000000,1, NOW());</v>
       </c>
     </row>
@@ -22260,7 +22300,7 @@
         <v>721</v>
       </c>
       <c r="I491" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2741,'DSPR1200V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',1955.000000,1, NOW());</v>
       </c>
     </row>
@@ -22290,7 +22330,7 @@
         <v>721</v>
       </c>
       <c r="I492" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2742,'DSPR1500V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2105.000000,1, NOW());</v>
       </c>
     </row>
@@ -22320,7 +22360,7 @@
         <v>721</v>
       </c>
       <c r="I493" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2743,'DSPR1900V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX100',2205.000000,1, NOW());</v>
       </c>
     </row>
@@ -22350,7 +22390,7 @@
         <v>721</v>
       </c>
       <c r="I494" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2744,'DSPR2200V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2305.000000,1, NOW());</v>
       </c>
     </row>
@@ -22380,7 +22420,7 @@
         <v>721</v>
       </c>
       <c r="I495" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2745,'DP-SPR1200V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2105.000000,1, NOW());</v>
       </c>
     </row>
@@ -22410,7 +22450,7 @@
         <v>721</v>
       </c>
       <c r="I496" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2746,'DP-SPR1500V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2255.000000,1, NOW());</v>
       </c>
     </row>
@@ -22440,7 +22480,7 @@
         <v>721</v>
       </c>
       <c r="I497" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2747,'DP-SPR1900V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX100',2355.000000,1, NOW());</v>
       </c>
     </row>
@@ -22470,7 +22510,7 @@
         <v>721</v>
       </c>
       <c r="I498" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2748,'DP-SPR2200V100','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2455.000000,1, NOW());</v>
       </c>
     </row>
@@ -22500,7 +22540,7 @@
         <v>721</v>
       </c>
       <c r="I499" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2749,'DSPR1200V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',1955.000000,1, NOW());</v>
       </c>
     </row>
@@ -22530,7 +22570,7 @@
         <v>721</v>
       </c>
       <c r="I500" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2750,'DSPR1500V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2105.000000,1, NOW());</v>
       </c>
     </row>
@@ -22560,7 +22600,7 @@
         <v>721</v>
       </c>
       <c r="I501" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2751,'DSPR1900V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX100',2205.000000,1, NOW());</v>
       </c>
     </row>
@@ -22590,7 +22630,7 @@
         <v>721</v>
       </c>
       <c r="I502" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2752,'DSPR2200V7100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2305.000000,1, NOW());</v>
       </c>
     </row>
@@ -22620,7 +22660,7 @@
         <v>721</v>
       </c>
       <c r="I503" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2753,'DP-SPR1200V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2105.000000,1, NOW());</v>
       </c>
     </row>
@@ -22650,7 +22690,7 @@
         <v>721</v>
       </c>
       <c r="I504" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2754,'DP-SPR1500V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2255.000000,1, NOW());</v>
       </c>
     </row>
@@ -22680,7 +22720,7 @@
         <v>721</v>
       </c>
       <c r="I505" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2755,'DP-SPR1900V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX100',2355.000000,1, NOW());</v>
       </c>
     </row>
@@ -22710,7 +22750,7 @@
         <v>721</v>
       </c>
       <c r="I506" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2756,'DP-SPR2200V100ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2455.000000,1, NOW());</v>
       </c>
     </row>
@@ -22740,7 +22780,7 @@
         <v>721</v>
       </c>
       <c r="I507" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2757,'DSPR1200V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2015.000000,1, NOW());</v>
       </c>
     </row>
@@ -22770,7 +22810,7 @@
         <v>721</v>
       </c>
       <c r="I508" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2758,'DSPR1500V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2165.000000,1, NOW());</v>
       </c>
     </row>
@@ -22800,7 +22840,7 @@
         <v>721</v>
       </c>
       <c r="I509" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2759,'DSPR1900V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX150',2265.000000,1, NOW());</v>
       </c>
     </row>
@@ -22830,7 +22870,7 @@
         <v>721</v>
       </c>
       <c r="I510" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2760,'DSPR2200V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2365.000000,1, NOW());</v>
       </c>
     </row>
@@ -22860,7 +22900,7 @@
         <v>721</v>
       </c>
       <c r="I511" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2761,'DP-SPR1200V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2165.000000,1, NOW());</v>
       </c>
     </row>
@@ -22890,7 +22930,7 @@
         <v>721</v>
       </c>
       <c r="I512" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2762,'DP-SPR1500V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2315.000000,1, NOW());</v>
       </c>
     </row>
@@ -22920,7 +22960,7 @@
         <v>721</v>
       </c>
       <c r="I513" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2763,'DP-SPR1900V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX150',2415.000000,1, NOW());</v>
       </c>
     </row>
@@ -22950,7 +22990,7 @@
         <v>721</v>
       </c>
       <c r="I514" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2764,'DP-SPR2200V150','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2515.000000,1, NOW());</v>
       </c>
     </row>
@@ -22980,7 +23020,7 @@
         <v>721</v>
       </c>
       <c r="I515" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2765,'DSPR1200V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2015.000000,1, NOW());</v>
       </c>
     </row>
@@ -23010,7 +23050,7 @@
         <v>721</v>
       </c>
       <c r="I516" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2766,'DSPR1500V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2165.000000,1, NOW());</v>
       </c>
     </row>
@@ -23040,7 +23080,7 @@
         <v>721</v>
       </c>
       <c r="I517" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2767,'DSPR1900V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX150',2265.000000,1, NOW());</v>
       </c>
     </row>
@@ -23070,7 +23110,7 @@
         <v>721</v>
       </c>
       <c r="I518" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2768,'DSPR2200V7150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2365.000000,1, NOW());</v>
       </c>
     </row>
@@ -23100,7 +23140,7 @@
         <v>721</v>
       </c>
       <c r="I519" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2769,'DP-SPR1200V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1200',2165.000000,1, NOW());</v>
       </c>
     </row>
@@ -23130,7 +23170,7 @@
         <v>721</v>
       </c>
       <c r="I520" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2770,'DP-SPR1500V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 1500',2315.000000,1, NOW());</v>
       </c>
     </row>
@@ -23160,7 +23200,7 @@
         <v>721</v>
       </c>
       <c r="I521" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2771,'DP-SPR1900V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS MDWVOX150',2415.000000,1, NOW());</v>
       </c>
     </row>
@@ -23190,7 +23230,7 @@
         <v>721</v>
       </c>
       <c r="I522" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux chargées',662,2772,'DP-SPR2200V150ALT','POSTE DE RELEVAGE DOUBLE POMPE EAUX BRUTESAQUATIRIS 2200',2515.000000,1, NOW());</v>
       </c>
     </row>
@@ -23220,7 +23260,7 @@
         <v>2198</v>
       </c>
       <c r="I524" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux claires',151,2783,'ECSPR-900-A','POSTE DE RELEVAGE EAUX CLAIRES 900',622.930000,1, NOW());</v>
       </c>
     </row>
@@ -23250,7 +23290,7 @@
         <v>2208</v>
       </c>
       <c r="I525" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux claires',151,2784,'ECSPR-1200-A','POSTE DE RELEVAGE EAUX CLAIRES 1200',656.990000,1, NOW());</v>
       </c>
     </row>
@@ -23280,7 +23320,7 @@
         <v>1837</v>
       </c>
       <c r="I526" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux claires',151,2785,'ECSPR-1500-A','POSTE DE RELEVAGE EAUX CLAIRES 1500',715.600000,1, NOW());</v>
       </c>
     </row>
@@ -23310,7 +23350,7 @@
         <v>2213</v>
       </c>
       <c r="I527" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux claires',151,2786,'ECSPR-1900-A','POSTE DE RELEVAGE EAUX CLAIRES 1900',758.800000,1, NOW());</v>
       </c>
     </row>
@@ -23340,7 +23380,7 @@
         <v>1931</v>
       </c>
       <c r="I528" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux claires',151,2787,'ECSPR-2200','POSTE DE RELEVAGE EAUX CLAIRES NON',568.600000,1, NOW());</v>
       </c>
     </row>
@@ -23370,7 +23410,7 @@
         <v>1837</v>
       </c>
       <c r="I529" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Postes eaux claires',151,2788,'ECSPR-2200-A','POSTE DE RELEVAGE EAUX CLAIRES OUI',758.800000,1, NOW());</v>
       </c>
     </row>
@@ -23400,7 +23440,7 @@
         <v>1102</v>
       </c>
       <c r="I531" t="str">
-        <f t="shared" ref="I531:I540" si="27">CONCATENATE($P$1,"'",E531,"',",A531,",",B531,",'",G531,"','",D531,"',",F531,",1, NOW());")</f>
+        <f t="shared" ref="I531:I540" si="20">CONCATENATE($P$1,"'",E531,"',",A531,",",B531,",'",G531,"','",D531,"',",F531,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',663,2773,'CHEMISE-H-S','CHEMISE HOMME TAILLE S',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23430,7 +23470,7 @@
         <v>1102</v>
       </c>
       <c r="I532" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',663,2774,'CHEMISE-H-M','CHEMISE HOMME TAILLE M',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23460,7 +23500,7 @@
         <v>1102</v>
       </c>
       <c r="I533" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',663,2775,'CHEMISE-H-L','CHEMISE HOMME TAILLE L',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23490,7 +23530,7 @@
         <v>1102</v>
       </c>
       <c r="I534" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',663,2776,'CHEMISE-H-XL','CHEMISE HOMME TAILLE XL',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23520,7 +23560,7 @@
         <v>1102</v>
       </c>
       <c r="I535" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',663,2777,'CHEMISE-H-XXL','CHEMISE HOMME TAILLE XXL',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23550,7 +23590,7 @@
         <v>1102</v>
       </c>
       <c r="I536" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',663,2778,'CHEMISE-H-XXXL','CHEMISE HOMME TAILLE XXXXL',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23580,7 +23620,7 @@
         <v>1102</v>
       </c>
       <c r="I537" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',664,2779,'CHEMISE-F-S','CHEMISE FEMME TAILLE S',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23610,7 +23650,7 @@
         <v>1102</v>
       </c>
       <c r="I538" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',664,2780,'CHEMISE-F-M','CHEMISE FEMME TAILLE M',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23640,7 +23680,7 @@
         <v>1102</v>
       </c>
       <c r="I539" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',664,2781,'CHEMISE-F-XL','CHEMISE FEMME TAILLE XL',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23670,7 +23710,7 @@
         <v>1102</v>
       </c>
       <c r="I540" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',664,2782,'CHEMISE-F-XXL','CHEMISE FEMME TAILLE XXL',38.750000,1, NOW());</v>
       </c>
     </row>
@@ -23730,7 +23770,7 @@
         <v>1628</v>
       </c>
       <c r="I544" t="str">
-        <f t="shared" ref="I544:I546" si="28">CONCATENATE($O$1,"'",E544,"',",A544,",",B544,",'",G544,"','",D544,"',",F544,",1, NOW());")</f>
+        <f>CONCATENATE($O$1,"'",E544,"',",A544,",",B544,",'",G544,"','",D544,"',",F544,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Accesoires postes',668,NULL,'CC6M','CHAPEAU D63 AVEC MOUSTIQUAIRE',20.691667,1, NOW());</v>
       </c>
     </row>
@@ -23760,7 +23800,7 @@
         <v>420</v>
       </c>
       <c r="I545" t="str">
-        <f t="shared" si="28"/>
+        <f>CONCATENATE($O$1,"'",E545,"',",A545,",",B545,",'",G545,"','",D545,"',",F545,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Accesoires postes',670,NULL,'MJOI125','JOINT FORSHEDA DIAMETRE 125',4.810000,1, NOW());</v>
       </c>
     </row>
@@ -23790,11 +23830,11 @@
         <v>420</v>
       </c>
       <c r="I546" t="str">
-        <f t="shared" si="28"/>
+        <f>CONCATENATE($O$1,"'",E546,"',",A546,",",B546,",'",G546,"','",D546,"',",F546,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Postes de relevages','Accesoires postes',671,NULL,'MJOI160','JOINT FORSHEDA DIAMETRE 160',6.730000,1, NOW());</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>672</v>
       </c>
@@ -23824,7 +23864,7 @@
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Bacs PE','Kits bacs',672,NULL,'REHAUSCAREXD400H200','REHAUSSE CUVE CAREX D400 H200',85.500000,1, NOW());</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>673</v>
       </c>
@@ -23880,7 +23920,7 @@
         <v>1102</v>
       </c>
       <c r="I550" t="str">
-        <f t="shared" ref="I550:I552" si="29">CONCATENATE($P$1,"'",E550,"',",A550,",",B550,",'",G550,"','",D550,"',",F550,",1, NOW());")</f>
+        <f t="shared" ref="I550:I556" si="21">CONCATENATE($P$1,"'",E550,"',",A550,",",B550,",'",G550,"','",D550,"',",F550,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',675,NULL,'GOBELET','GOBELET COUVERCLE',1.250000,1, NOW());</v>
       </c>
     </row>
@@ -23910,7 +23950,7 @@
         <v>2286</v>
       </c>
       <c r="I551" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',676,NULL,'BOUTEILLEK','BOUTEILLE ISOTHERME KAKI',11.050000,1, NOW());</v>
       </c>
     </row>
@@ -23940,7 +23980,7 @@
         <v>2286</v>
       </c>
       <c r="I552" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',677,NULL,'BOUTEILLEN','BOUTEILLE ISOTHERME NOIRE',11.050000,1, NOW());</v>
       </c>
     </row>
@@ -23970,7 +24010,7 @@
         <v>1102</v>
       </c>
       <c r="I553" t="str">
-        <f t="shared" ref="I553:I556" si="30">CONCATENATE($P$1,"'",E553,"',",A553,",",B553,",'",G553,"','",D553,"',",F553,",1, NOW());")</f>
+        <f t="shared" si="21"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',678,NULL,'BONNETBEIGE','BONNET BEIGE',13.440000,1, NOW());</v>
       </c>
     </row>
@@ -24000,7 +24040,7 @@
         <v>1102</v>
       </c>
       <c r="I554" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',679,NULL,'BONNETBLEU','BONNET BLEU',13.440000,1, NOW());</v>
       </c>
     </row>
@@ -24030,7 +24070,7 @@
         <v>1102</v>
       </c>
       <c r="I555" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Textile',680,NULL,'BONNETGRIS','BONNET GRIS',13.440000,1, NOW());</v>
       </c>
     </row>
@@ -24060,7 +24100,7 @@
         <v>1777</v>
       </c>
       <c r="I556" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('Support de communication','Support de communication',681,NULL,'CARTE JARDINS D'ASSAINISSEMENT','CARTEPOSTALEJARDINAS',12.120000,1, NOW());</v>
       </c>
     </row>
@@ -24114,7 +24154,7 @@
         <v>1102</v>
       </c>
       <c r="I558" t="str">
-        <f t="shared" ref="I558:I621" si="31">CONCATENATE($S$1,A558,",",B558,",'",G558,"','",D558,"',",F558,",1, NOW());")</f>
+        <f t="shared" ref="I558:I621" si="22">CONCATENATE($S$1,A558,",",B558,",'",G558,"','",D558,"',",F558,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',683,NULL,'PLPHYTOREUT','PLAQUETTE PHYTO REUT',9.058333,1, NOW());</v>
       </c>
     </row>
@@ -24142,7 +24182,7 @@
         <v>2316</v>
       </c>
       <c r="I559" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',688,NULL,'7122000003A3M','ELECTROPOMPE DW VOX M 75 DIAM 63 FILETE 3 M DE CAB...',355.110000,1, NOW());</v>
       </c>
     </row>
@@ -24170,7 +24210,7 @@
         <v>464</v>
       </c>
       <c r="I560" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',690,NULL,'ECOLAT12','ECOLAT 12CM X 7MM RLX 25ML',83.510000,1, NOW());</v>
       </c>
     </row>
@@ -24197,7 +24237,7 @@
         <v>2325</v>
       </c>
       <c r="I561" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',691,NULL,'DGEOMRLX610-152-3048','ROULEAU MEMBRANE 6.10 x 30.48',2540.524000,1, NOW());</v>
       </c>
     </row>
@@ -24224,7 +24264,7 @@
         <v>1870</v>
       </c>
       <c r="I562" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',692,NULL,'C601400','PIQUET PE GRIS 1M40 (A L'UNITE)',5.055000,1, NOW());</v>
       </c>
     </row>
@@ -24251,7 +24291,7 @@
         <v>889</v>
       </c>
       <c r="I563" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',693,NULL,'SUPPORTDOCUMENT','SUPPORT DOCUMENT',17.330000,1, NOW());</v>
       </c>
     </row>
@@ -24278,7 +24318,7 @@
         <v>2011</v>
       </c>
       <c r="I564" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',665,NULL,'PAL100PC2','PALETTE DE 100 PROFIL CREUX ECOPLANC 2M',2294.000000,1, NOW());</v>
       </c>
     </row>
@@ -24305,7 +24345,7 @@
         <v>2011</v>
       </c>
       <c r="I565" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',666,NULL,'PAL100PC2.5','PALETTE DE 100 PROFIL CREUX ECOPLANC 2M50',2867.500000,1, NOW());</v>
       </c>
     </row>
@@ -24332,7 +24372,7 @@
         <v>2011</v>
       </c>
       <c r="I566" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',667,NULL,'PAL100PC3','PALETTE DE 100 PROFIL CREUX ECOPLANC 3M',3848.000000,1, NOW());</v>
       </c>
     </row>
@@ -24359,7 +24399,7 @@
         <v>2351</v>
       </c>
       <c r="I568" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',686,2792,'H8503158C50','CABLE ELECTRIQUE SOUPLE H07RNF 3G1.5 CÂBLE 1.5 50M',57.770000,1, NOW());</v>
       </c>
     </row>
@@ -24386,7 +24426,7 @@
         <v>2356</v>
       </c>
       <c r="I569" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',686,2793,'H8503158C100','CABLE ELECTRIQUE SOUPLE H07RNF 3G1.5 CÂBLE 1.5 100...',115.540000,1, NOW());</v>
       </c>
     </row>
@@ -24413,7 +24453,7 @@
         <v>2361</v>
       </c>
       <c r="I570" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',686,2835,'H8503158-SM','CABLE ELECTRIQUE SOUPLE H07RNF 3G1.5 Découpe sur m...',1.300000,1, NOW());</v>
       </c>
     </row>
@@ -24440,7 +24480,7 @@
         <v>2356</v>
       </c>
       <c r="I571" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',687,2796,'H8502108C100','CABLE ELECTRIQUE SOUPLE H07RNF 2x1,00 mm² Couronne...',71.710000,1, NOW());</v>
       </c>
     </row>
@@ -24467,7 +24507,7 @@
         <v>2351</v>
       </c>
       <c r="I572" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',687,2798,'H8502108C50','CABLE ELECTRIQUE SOUPLE H07RNF 2x1,00 mm² Couronne...',35.850000,1, NOW());</v>
       </c>
     </row>
@@ -24494,7 +24534,7 @@
         <v>2371</v>
       </c>
       <c r="I573" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',687,2799,'H8502108-SM','CABLE ELECTRIQUE SOUPLE H07RNF 2x1,00 mm² Découpe ...',0.900000,1, NOW());</v>
       </c>
     </row>
@@ -24521,7 +24561,7 @@
         <v>335</v>
       </c>
       <c r="I574" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',689,2800,'R2V020015C50','CABLE ELECTRIQUE RIGIDE U-1000 R2V 2X1.5 mm Couron...',60.880000,1, NOW());</v>
       </c>
     </row>
@@ -24548,7 +24588,7 @@
         <v>302</v>
       </c>
       <c r="I575" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',689,2801,'R2V020015C100','CABLE ELECTRIQUE RIGIDE U-1000 R2V 2X1.5 mm Couron...',92.560000,1, NOW());</v>
       </c>
     </row>
@@ -24575,7 +24615,7 @@
         <v>2361</v>
       </c>
       <c r="I576" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',689,2836,'R2V020015-SM','CABLE ELECTRIQUE RIGIDE U-1000 R2V 2X1.5 mm Découp...',30.050000,1, NOW());</v>
       </c>
     </row>
@@ -24602,7 +24642,7 @@
         <v>302</v>
       </c>
       <c r="I577" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',696,2837,'R2V030015C100','CABLE ELECTRIQUE RIGIDE U-1000 R2V 3G1.5 mm Couron...',106.610000,1, NOW());</v>
       </c>
     </row>
@@ -24629,7 +24669,7 @@
         <v>2361</v>
       </c>
       <c r="I578" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',696,2838,'R2V020015-SM','CABLE ELECTRIQUE RIGIDE U-1000 R2V 3G1.5 mm Découp...',30.050000,1, NOW());</v>
       </c>
     </row>
@@ -24683,7 +24723,7 @@
         <v>889</v>
       </c>
       <c r="I580" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',695,NULL,'CLASSEUR','CLASSEUR',5.950000,1, NOW());</v>
       </c>
     </row>
@@ -24710,7 +24750,7 @@
         <v>350</v>
       </c>
       <c r="I582" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',697,NULL,'R2V030015','TOURET CABLE ELECTRIQUE RIGIDE U-1000 R2V 3G1.5 mm',0.774000,1, NOW());</v>
       </c>
     </row>
@@ -24737,7 +24777,7 @@
         <v>265</v>
       </c>
       <c r="I583" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',698,NULL,'R2V020015','TOURET CABLE ELECTRIQUE RIGIDE U-1000 R2V 2X1.5 mm',0.634000,1, NOW());</v>
       </c>
     </row>
@@ -24764,7 +24804,7 @@
         <v>265</v>
       </c>
       <c r="I584" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',699,NULL,'H8502108','TOURET CABLE ELECTRIQUE SOUPLE H07RNF 2x1,00 mm',0.717000,1, NOW());</v>
       </c>
     </row>
@@ -24791,7 +24831,7 @@
         <v>265</v>
       </c>
       <c r="I585" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',700,NULL,'H8503158','TOURET CABLE ELECTRIQUE SOUPLE H07RNF 3G1.5',1.155000,1, NOW());</v>
       </c>
     </row>
@@ -24818,7 +24858,7 @@
         <v>331</v>
       </c>
       <c r="I586" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',701,NULL,'MREHAD800H700COUV','REGARD SANS FOND D800 H700 AVEC COUVERCLE',130.000000,1, NOW());</v>
       </c>
     </row>
@@ -24845,7 +24885,7 @@
         <v>1777</v>
       </c>
       <c r="I587" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',702,NULL,'SCOTCHLOKP50','Connecteurs rapides Scotchlok 3M - paquet de 50',33.500000,1, NOW());</v>
       </c>
     </row>
@@ -24872,7 +24912,7 @@
         <v>1777</v>
       </c>
       <c r="I588" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',705,NULL,'SAVCONDENSATEUR','CONDENSATEUR SAV POMPE',11.250000,1, NOW());</v>
       </c>
     </row>
@@ -24899,7 +24939,7 @@
         <v>889</v>
       </c>
       <c r="I589" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',704,NULL,'CARNET ENFANT','CARNETENFANT',10.120000,1, NOW());</v>
       </c>
     </row>
@@ -24926,7 +24966,7 @@
         <v>721</v>
       </c>
       <c r="I591" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',706,NULL,'CHASSECLAP100','KIT CHASSE A CLAPET 100 L',1289.000000,1, NOW());</v>
       </c>
     </row>
@@ -24953,7 +24993,7 @@
         <v>721</v>
       </c>
       <c r="I593" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',684,2857,'ECSPR-1900-D800-A','POSTE DE RELEVAGE SUR MESURE ECSPR-1900-D800-A',802.460000,1, NOW());</v>
       </c>
     </row>
@@ -24978,7 +25018,7 @@
         <v>1967</v>
       </c>
       <c r="I594" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',684,2864,'','POSTE DE RELEVAGE SUR MESURE ECSPR12D8DPA',890.000000,1, NOW());</v>
       </c>
     </row>
@@ -25005,7 +25045,7 @@
         <v>1777</v>
       </c>
       <c r="I595" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',708,NULL,'BIZWINMINI','BORN BIZ WING MINI 2ENT X100',38.050000,1, NOW());</v>
       </c>
     </row>
@@ -25032,7 +25072,7 @@
         <v>265</v>
       </c>
       <c r="I597" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',711,NULL,'FLPGCE13','PRESSE ETOUPE PG13 FILETAGE LONG AVEC CONTRE ECROU',1.380000,1, NOW());</v>
       </c>
     </row>
@@ -25059,7 +25099,7 @@
         <v>265</v>
       </c>
       <c r="I598" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',712,NULL,'FLPGCE21','PRESSE ETOUPE PG21 FILETAGE LONG AVEC CONTRE ECROU',2.550000,1, NOW());</v>
       </c>
     </row>
@@ -25086,7 +25126,7 @@
         <v>265</v>
       </c>
       <c r="I599" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',713,NULL,'FLPGCE29','PRESSE ETOUPE PG29 FILETAGE LONG AVEC CONTRE ECROU',3.725000,1, NOW());</v>
       </c>
     </row>
@@ -25113,7 +25153,7 @@
         <v>265</v>
       </c>
       <c r="I600" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',714,NULL,'FCPGCE29','PRESSE ETOUPE PG29 FILETAGE COURT AVEC CONTRE ECRO...',2.550000,1, NOW());</v>
       </c>
     </row>
@@ -25140,7 +25180,7 @@
         <v>265</v>
       </c>
       <c r="I601" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',715,NULL,'FCPGCE21','PRESSE ETOUPE PG21 FILETAGE COURT AVEC CONTRE ECRO...',1.700000,1, NOW());</v>
       </c>
     </row>
@@ -25167,7 +25207,7 @@
         <v>265</v>
       </c>
       <c r="I602" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',716,NULL,'FCPGCE13','PRESSE ETOUPE PG13 FILETAGE COURT AVEC CONTRE ECRO...',1.700000,1, NOW());</v>
       </c>
     </row>
@@ -25194,7 +25234,7 @@
         <v>420</v>
       </c>
       <c r="I603" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',717,NULL,'BOITEDERIV','BOITE DERIVATION ETANCHE D.70',1.264000,1, NOW());</v>
       </c>
     </row>
@@ -25221,7 +25261,7 @@
         <v>1102</v>
       </c>
       <c r="I604" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',707,NULL,'GELELECBIZ1L','GEL D'ETANCHEITE BIZLINE 1L',47.966667,1, NOW());</v>
       </c>
     </row>
@@ -25248,7 +25288,7 @@
         <v>317</v>
       </c>
       <c r="I605" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',710,NULL,'DIR023V63PAP','KIT RELEVAGE 3 VOIES D63 PRET A POSER',315.000000,1, NOW());</v>
       </c>
     </row>
@@ -25275,7 +25315,7 @@
         <v>2465</v>
       </c>
       <c r="I606" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',720,NULL,'TCORD500','CORDAGE CHANVRE (BOBINE DE 500M)',248.000000,1, NOW());</v>
       </c>
     </row>
@@ -25302,7 +25342,7 @@
         <v>889</v>
       </c>
       <c r="I607" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',721,NULL,'SCOTCHAQUA','SCOTCH BLANC AQUATIRIS 5CMS - 100ML',4.060000,1, NOW());</v>
       </c>
     </row>
@@ -25329,7 +25369,7 @@
         <v>265</v>
       </c>
       <c r="I608" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',722,NULL,'MRALLONGEVANNE','RALLONGE VANNES GUILLOTINES VALTERRA 45CM',23.390000,1, NOW());</v>
       </c>
     </row>
@@ -25356,7 +25396,7 @@
         <v>2316</v>
       </c>
       <c r="I609" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',724,2891,'1599050021A','ELECTROPOMPES DW VOX  SANS FLOTTEUR MDWVOX100',450.000000,1, NOW());</v>
       </c>
     </row>
@@ -25383,7 +25423,7 @@
         <v>2316</v>
       </c>
       <c r="I610" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',724,2892,'1599070021A','ELECTROPOMPES DW VOX  SANS FLOTTEUR MDWVOX150',480.000000,1, NOW());</v>
       </c>
     </row>
@@ -25410,7 +25450,7 @@
         <v>2316</v>
       </c>
       <c r="I611" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',724,2893,'1599030021A','ELECTROPOMPES DW VOX  SANS FLOTTEUR MDWVOX75',397.500000,1, NOW());</v>
       </c>
     </row>
@@ -25437,7 +25477,7 @@
         <v>331</v>
       </c>
       <c r="I612" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',727,NULL,'MRIGHT75-SF','ELECTROPOMPE RIGHT M 75 D50 SANS FLOTTEUR',258.000000,1, NOW());</v>
       </c>
     </row>
@@ -25464,7 +25504,7 @@
         <v>2493</v>
       </c>
       <c r="I613" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',728,NULL,'MBESTONEMA','POMPES EAUX CLAIRES - BEST ONE',151.200000,1, NOW());</v>
       </c>
     </row>
@@ -25491,7 +25531,7 @@
         <v>2045</v>
       </c>
       <c r="I615" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2894,'MBAR166','BARRE T ACIER GALVANISE 1,66',52.540000,1, NOW());</v>
       </c>
     </row>
@@ -25518,7 +25558,7 @@
         <v>2502</v>
       </c>
       <c r="I616" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2895,'MBAR203','BARRE T ACIER GALVANISE 2,03',52.541667,1, NOW());</v>
       </c>
     </row>
@@ -25545,7 +25585,7 @@
         <v>345</v>
       </c>
       <c r="I617" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2896,'MBAR206','BARRE T ACIER GALVANISE 2,06',59.250000,1, NOW());</v>
       </c>
     </row>
@@ -25572,7 +25612,7 @@
         <v>2511</v>
       </c>
       <c r="I618" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2897,'MBAR303','BARRE T ACIER GALVANISE 3,03',78.000000,1, NOW());</v>
       </c>
     </row>
@@ -25599,7 +25639,7 @@
         <v>2515</v>
       </c>
       <c r="I619" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2898,'MBAR306','BARRE T ACIER GALVANISE 3,06',78.000000,1, NOW());</v>
       </c>
     </row>
@@ -25626,7 +25666,7 @@
         <v>1742</v>
       </c>
       <c r="I620" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2899,'MBAR353','BARRE T ACIER GALVANISE 3,53',75.750000,1, NOW());</v>
       </c>
     </row>
@@ -25653,7 +25693,7 @@
         <v>2524</v>
       </c>
       <c r="I621" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2900,'MBAR403','BARRE T ACIER GALVANISE 4,03',92.800000,1, NOW());</v>
       </c>
     </row>
@@ -25680,7 +25720,7 @@
         <v>2529</v>
       </c>
       <c r="I622" t="str">
-        <f t="shared" ref="I622:I646" si="32">CONCATENATE($S$1,A622,",",B622,",'",G622,"','",D622,"',",F622,",1, NOW());")</f>
+        <f t="shared" ref="I622:I650" si="23">CONCATENATE($S$1,A622,",",B622,",'",G622,"','",D622,"',",F622,",1, NOW());")</f>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',733,2901,'MBAR406','BARRE T ACIER GALVANISE 4,06',98.600000,1, NOW());</v>
       </c>
     </row>
@@ -25707,7 +25747,7 @@
         <v>2534</v>
       </c>
       <c r="I624" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',734,NULL,'PALGRILLE1000X1000','PALETTE DE 38 CAILLEBOTIS 1000x1000',1617.300000,1, NOW());</v>
       </c>
     </row>
@@ -25734,7 +25774,7 @@
         <v>2539</v>
       </c>
       <c r="I625" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',735,NULL,'PALGRILLE1000X1250','PALETTE DE 38 CAILLEBOTIS 1000x1250',1989.680000,1, NOW());</v>
       </c>
     </row>
@@ -25761,7 +25801,7 @@
         <v>1102</v>
       </c>
       <c r="I627" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2929,'TSHIRTF-S','T-SHIRT AQUATIRIS TAILLE S',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25788,7 +25828,7 @@
         <v>1102</v>
       </c>
       <c r="I628" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2930,'TSHIRTJ-S','T-SHIRT AQUATIRIS TAILLE S',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25815,7 +25855,7 @@
         <v>1102</v>
       </c>
       <c r="I629" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2933,'TSHIRTF-M','T-SHIRT AQUATIRIS TAILLE M',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25842,7 +25882,7 @@
         <v>1102</v>
       </c>
       <c r="I630" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2934,'TSHIRTJ-M','T-SHIRT AQUATIRIS TAILLE M',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25869,7 +25909,7 @@
         <v>1102</v>
       </c>
       <c r="I631" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2937,'TSHIRTF-L','T-SHIRT AQUATIRIS TAILLE L',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25896,7 +25936,7 @@
         <v>1102</v>
       </c>
       <c r="I632" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2938,'TSHIRTJ-L','T-SHIRT AQUATIRIS TAILLE L',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25923,7 +25963,7 @@
         <v>1102</v>
       </c>
       <c r="I633" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2941,'TSHIRTF-XL','T-SHIRT AQUATIRIS TAILLE XL',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25950,7 +25990,7 @@
         <v>1102</v>
       </c>
       <c r="I634" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2942,'TSHIRTJ-XL','T-SHIRT AQUATIRIS TAILLE XL',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -25977,7 +26017,7 @@
         <v>1102</v>
       </c>
       <c r="I635" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2945,'TSHIRTF-XXL','T-SHIRT AQUATIRIS TAILLE XXL',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -26004,7 +26044,7 @@
         <v>1102</v>
       </c>
       <c r="I636" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2946,'TSHIRTJ-XXL','T-SHIRT AQUATIRIS TAILLE XXL',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -26031,7 +26071,7 @@
         <v>1102</v>
       </c>
       <c r="I637" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2949,'TSHIRTF-XXXL','T-SHIRT AQUATIRIS TAILLE XXXL',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -26058,7 +26098,7 @@
         <v>1102</v>
       </c>
       <c r="I638" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',566,2950,'TSHIRTJ-XXXL','T-SHIRT AQUATIRIS TAILLE XXXL',20.540000,1, NOW());</v>
       </c>
     </row>
@@ -26085,7 +26125,7 @@
         <v>1769</v>
       </c>
       <c r="I640" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',709,2865,'DFVCFH','KIT DRAINAGE AERATION POUR FV+FH GEO 4 à 7 EH SORT...',116.560000,1, NOW());</v>
       </c>
     </row>
@@ -26112,7 +26152,7 @@
         <v>1769</v>
       </c>
       <c r="I641" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',709,2866,'DFVLFH','KIT DRAINAGE AERATION POUR FV+FH GEO 4 à 7 EH SORT...',115.000000,1, NOW());</v>
       </c>
     </row>
@@ -26139,7 +26179,7 @@
         <v>2316</v>
       </c>
       <c r="I642" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',730,NULL,'KITGUILLAUTO110','KIT PAP DIR02 VANNES GUILLOTINES D110 SUR VERRINS',975.000000,1, NOW());</v>
       </c>
     </row>
@@ -26166,7 +26206,7 @@
         <v>265</v>
       </c>
       <c r="I643" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',731,NULL,'KITGUILLAUTO63','KIT PAP DIR02 VANNES GUILLOTINES D63 SUR VERRINS',0.000000,1, NOW());</v>
       </c>
     </row>
@@ -26178,22 +26218,22 @@
         <v>199</v>
       </c>
       <c r="C645" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D645" s="2" t="s">
         <v>2573</v>
       </c>
-      <c r="D645" s="2" t="s">
+      <c r="F645" s="2" t="s">
         <v>2574</v>
       </c>
-      <c r="F645" s="2" t="s">
+      <c r="G645" s="2" t="s">
         <v>2575</v>
-      </c>
-      <c r="G645" s="2" t="s">
-        <v>2576</v>
       </c>
       <c r="H645" s="2" t="s">
         <v>2534</v>
       </c>
       <c r="I645" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',740,NULL,'PALGRILLE1000X1000NP','PALETTE DE 36 GRILLES NON PIETON 1000x1000',1175.470000,1, NOW());</v>
       </c>
     </row>
@@ -26205,23 +26245,131 @@
         <v>199</v>
       </c>
       <c r="C646" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D646" s="2" t="s">
         <v>2577</v>
       </c>
-      <c r="D646" s="2" t="s">
+      <c r="F646" s="2" t="s">
         <v>2578</v>
       </c>
-      <c r="F646" s="2" t="s">
+      <c r="G646" s="2" t="s">
         <v>2579</v>
-      </c>
-      <c r="G646" s="2" t="s">
-        <v>2580</v>
       </c>
       <c r="H646" s="2" t="s">
         <v>2539</v>
       </c>
       <c r="I646" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',741,NULL,'PALGRILLE1000X1250NP','PALETTE DE 36 GRILLES NON PIETON 1000x1250',1386.070000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <v>742</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="H647" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="I647" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',742,NULL,'ENFTR10063','REDUCTION 100 63',4.440000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A648" s="2">
+        <v>736</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I648" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',736,NULL,'CONTLEGMAN','CONTACTEUR 25A LEGRAND 2NO SANS MANETTE',29.620000,1, NOW());</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A649" s="2">
+        <v>738</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I649" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',738,NULL,'H8505158','TOURET CABLE ELECTRIQUE SOUPLE H07RNF 5G1.5',1.778100,1, NOW());</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A650" s="2">
+        <v>739</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H650" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I650" t="str">
+        <f t="shared" si="23"/>
+        <v>INSERT INTO TSaskit (Categorie, SousCategorie, `RefPrestashop`,  id_product_attribute, `Reference`, `Designation`, `PrixMagasin`, `Actif`, DateModification) VALUES ('','',739,NULL,'H8507158','TOURET CABLE ELECTRIQUE SOUPLE H07RNF 7G1.5',3.240000,1, NOW());</v>
       </c>
     </row>
   </sheetData>
@@ -26295,7 +26443,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J16"/>
+      <selection sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26337,7 +26485,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2572</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
